--- a/tools/vizitky.xlsx
+++ b/tools/vizitky.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="807">
   <si>
     <t>OBVOD</t>
   </si>
@@ -2413,9 +2413,6 @@
     <t>Kandidátka možnost nabízenou Českým rozhlasem k natočení vizitky nevyužila.</t>
   </si>
   <si>
-    <t>Vizitku kandidáta posuzuje právní oddělení Českého rozhlasu.</t>
-  </si>
-  <si>
     <t>23_1</t>
   </si>
   <si>
@@ -2432,18 +2429,32 @@
   </si>
   <si>
     <t>Kandidát možnost nabízenou Českým rozhlasem k natočení vizitky zatím nevyužil.</t>
+  </si>
+  <si>
+    <t>74_8</t>
+  </si>
+  <si>
+    <t>74_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2468,14 +2479,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2484,6 +2487,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2529,23 +2548,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -2863,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC226" sqref="AC226"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,19 +2925,19 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2980,7 +3001,7 @@
         <v>796</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>797</v>
@@ -2993,18 +3014,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="G2" s="8"/>
       <c r="H2">
         <v>53</v>
       </c>
@@ -3071,15 +3093,17 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>759</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3">
         <v>66</v>
       </c>
@@ -3146,15 +3170,17 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4">
         <v>54</v>
       </c>
@@ -3221,18 +3247,19 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>166</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="G5" s="8"/>
       <c r="H5">
         <v>48</v>
       </c>
@@ -3299,15 +3326,17 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>1114</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6">
         <v>52</v>
       </c>
@@ -3374,15 +3403,17 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>768</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7">
         <v>50</v>
       </c>
@@ -3449,15 +3480,17 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>769</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8">
         <v>62</v>
       </c>
@@ -3524,18 +3557,19 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="G9" s="8"/>
       <c r="H9">
         <v>52</v>
       </c>
@@ -3602,15 +3636,17 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <v>80</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10">
         <v>49</v>
       </c>
@@ -3677,18 +3713,19 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>768</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="G11" s="8"/>
       <c r="H11">
         <v>54</v>
       </c>
@@ -3755,15 +3792,17 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="8">
         <v>80</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12">
         <v>58</v>
       </c>
@@ -3830,18 +3869,19 @@
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
         <v>1187</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="G13" s="8"/>
       <c r="H13">
         <v>54</v>
       </c>
@@ -3908,19 +3948,19 @@
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="8">
         <v>80</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="8" t="s">
         <v>84</v>
       </c>
       <c r="H14">
@@ -3989,18 +4029,19 @@
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="8">
         <v>53</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="G15" s="8"/>
       <c r="H15">
         <v>54</v>
       </c>
@@ -4067,18 +4108,19 @@
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="8">
         <v>1114</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="G16" s="8"/>
       <c r="H16">
         <v>40</v>
       </c>
@@ -4998,13 +5040,13 @@
         <v>144</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="AC27" s="7" t="s">
-        <v>805</v>
+        <v>801</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -5161,13 +5203,13 @@
         <v>134</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="AC29" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -7532,6 +7574,7 @@
         <f t="shared" si="0"/>
         <v>20_8</v>
       </c>
+      <c r="AC59" s="9"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -7607,12 +7650,6 @@
         <v>256</v>
       </c>
       <c r="AA60" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="AB60" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="AC60" s="5" t="s">
         <v>799</v>
       </c>
     </row>
@@ -7694,9 +7731,9 @@
         <v>23_2</v>
       </c>
       <c r="AB61" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="AC61" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC61" s="5" t="s">
         <v>798</v>
       </c>
     </row>
@@ -10324,12 +10361,12 @@
         <v>366</v>
       </c>
       <c r="AA95" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AB95" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="AC95" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC95" s="6" t="s">
         <v>798</v>
       </c>
     </row>
@@ -10869,7 +10906,7 @@
         <v>292</v>
       </c>
       <c r="AA102" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
@@ -11041,10 +11078,10 @@
       <c r="C105">
         <v>53</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="4" t="s">
         <v>396</v>
       </c>
       <c r="H105">
@@ -11116,10 +11153,10 @@
       <c r="C106">
         <v>1114</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="4" t="s">
         <v>399</v>
       </c>
       <c r="F106" t="s">
@@ -11194,10 +11231,10 @@
       <c r="C107">
         <v>780</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="4" t="s">
         <v>401</v>
       </c>
       <c r="F107" t="s">
@@ -12413,14 +12450,9 @@
         <v>51</v>
       </c>
       <c r="AA122" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="AB122" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="AC122" s="7" t="s">
-        <v>799</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="AC122" s="6"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -14862,12 +14894,7 @@
         <f t="shared" si="2"/>
         <v>50_6</v>
       </c>
-      <c r="AB153" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="AC153" s="7" t="s">
-        <v>799</v>
-      </c>
+      <c r="AC153" s="6"/>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -15349,12 +15376,14 @@
       <c r="C160">
         <v>166</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="4" t="s">
         <v>553</v>
       </c>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
       <c r="H160">
         <v>49</v>
       </c>
@@ -15424,16 +15453,16 @@
       <c r="C161">
         <v>720</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="4" t="s">
         <v>131</v>
       </c>
       <c r="H161">
@@ -15505,15 +15534,16 @@
       <c r="C162">
         <v>1</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="G162" s="4"/>
       <c r="H162">
         <v>62</v>
       </c>
@@ -15583,16 +15613,16 @@
       <c r="C163">
         <v>768</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="4" t="s">
         <v>393</v>
       </c>
       <c r="H163">
@@ -15664,12 +15694,14 @@
       <c r="C164">
         <v>47</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="4" t="s">
         <v>562</v>
       </c>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
       <c r="H164">
         <v>42</v>
       </c>
@@ -15739,15 +15771,16 @@
       <c r="C165">
         <v>1114</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="G165" s="4"/>
       <c r="H165">
         <v>69</v>
       </c>
@@ -15817,15 +15850,16 @@
       <c r="C166">
         <v>1114</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="G166" s="4"/>
       <c r="H166">
         <v>56</v>
       </c>
@@ -15895,15 +15929,16 @@
       <c r="C167">
         <v>7</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G167" s="4"/>
       <c r="H167">
         <v>56</v>
       </c>
@@ -15973,10 +16008,10 @@
       <c r="C168">
         <v>720</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="4" t="s">
         <v>570</v>
       </c>
       <c r="F168" t="s">
@@ -16051,10 +16086,10 @@
       <c r="C169">
         <v>1</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="4" t="s">
         <v>571</v>
       </c>
       <c r="F169" t="s">
@@ -16129,13 +16164,13 @@
       <c r="C170">
         <v>47</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H170">
@@ -17384,12 +17419,14 @@
       <c r="C186">
         <v>768</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="4" t="s">
         <v>627</v>
       </c>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
       <c r="H186">
         <v>49</v>
       </c>
@@ -17459,15 +17496,16 @@
       <c r="C187">
         <v>83</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="G187" s="4"/>
       <c r="H187">
         <v>44</v>
       </c>
@@ -17537,16 +17575,16 @@
       <c r="C188">
         <v>1114</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="4" t="s">
         <v>633</v>
       </c>
       <c r="H188">
@@ -17618,15 +17656,16 @@
       <c r="C189">
         <v>1020</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="4" t="s">
         <v>636</v>
       </c>
+      <c r="G189" s="4"/>
       <c r="H189">
         <v>62</v>
       </c>
@@ -17696,12 +17735,14 @@
       <c r="C190">
         <v>1190</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="4" t="s">
         <v>639</v>
       </c>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
       <c r="H190">
         <v>54</v>
       </c>
@@ -17771,15 +17812,16 @@
       <c r="C191">
         <v>53</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="G191" s="4"/>
       <c r="H191">
         <v>44</v>
       </c>
@@ -17849,15 +17891,16 @@
       <c r="C192">
         <v>2</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="4" t="s">
         <v>646</v>
       </c>
+      <c r="G192" s="4"/>
       <c r="H192">
         <v>51</v>
       </c>
@@ -17917,25 +17960,26 @@
         <v>62_9</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>62</v>
       </c>
       <c r="B193">
         <v>10</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="4">
         <v>1</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="G193" s="4"/>
       <c r="H193">
         <v>60</v>
       </c>
@@ -17995,22 +18039,24 @@
         <v>62_10</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>62</v>
       </c>
       <c r="B194">
         <v>11</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="4">
         <v>47</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="4" t="s">
         <v>653</v>
       </c>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
       <c r="H194">
         <v>42</v>
       </c>
@@ -18070,25 +18116,26 @@
         <v>62_11</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>65</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="4">
         <v>1114</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G195" s="4"/>
       <c r="H195">
         <v>55</v>
       </c>
@@ -18148,23 +18195,23 @@
         <v>65_1</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>65</v>
       </c>
       <c r="B196">
         <v>2</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="4">
         <v>53</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H196">
@@ -18226,23 +18273,23 @@
         <v>65_2</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>65</v>
       </c>
       <c r="B197">
         <v>3</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="4">
         <v>594</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="4" t="s">
         <v>662</v>
       </c>
       <c r="H197">
@@ -18304,23 +18351,23 @@
         <v>65_3</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>65</v>
       </c>
       <c r="B198">
         <v>4</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="4">
         <v>80</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H198">
@@ -18382,23 +18429,23 @@
         <v>65_4</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>65</v>
       </c>
       <c r="B199">
         <v>5</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="4">
         <v>768</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H199">
@@ -18460,23 +18507,23 @@
         <v>65_5</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>65</v>
       </c>
       <c r="B200">
         <v>6</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="4">
         <v>47</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H200">
@@ -18538,23 +18585,23 @@
         <v>65_6</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>65</v>
       </c>
       <c r="B201">
         <v>7</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="4">
         <v>7</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G201" t="s">
@@ -18619,22 +18666,23 @@
         <v>65_7</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>68</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="4">
         <v>1</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="4" t="s">
         <v>678</v>
       </c>
+      <c r="F202" s="4"/>
       <c r="H202">
         <v>68</v>
       </c>
@@ -18694,22 +18742,23 @@
         <v>68_1</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>68</v>
       </c>
       <c r="B203">
         <v>2</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="4">
         <v>720</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="4" t="s">
         <v>680</v>
       </c>
+      <c r="F203" s="4"/>
       <c r="H203">
         <v>65</v>
       </c>
@@ -18769,23 +18818,23 @@
         <v>68_2</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>68</v>
       </c>
       <c r="B204">
         <v>3</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="4">
         <v>1114</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H204">
@@ -18842,28 +18891,33 @@
       <c r="Z204" t="s">
         <v>51</v>
       </c>
-      <c r="AA204" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>68_3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA204" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="AB204" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC204" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>68</v>
       </c>
       <c r="B205">
         <v>4</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="4">
         <v>47</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H205">
@@ -18920,28 +18974,33 @@
       <c r="Z205" t="s">
         <v>32</v>
       </c>
-      <c r="AA205" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>68_4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA205" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="AB205" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC205" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>68</v>
       </c>
       <c r="B206">
         <v>5</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="4">
         <v>80</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H206">
@@ -19003,25 +19062,26 @@
         <v>68_5</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>68</v>
       </c>
       <c r="B207">
         <v>6</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="4">
         <v>1329</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="G207" s="4"/>
       <c r="H207">
         <v>60</v>
       </c>
@@ -19081,25 +19141,26 @@
         <v>68_6</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>68</v>
       </c>
       <c r="B208">
         <v>7</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="4">
         <v>768</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="G208" s="4"/>
       <c r="H208">
         <v>45</v>
       </c>
@@ -19166,18 +19227,19 @@
       <c r="B209">
         <v>1</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="4">
         <v>1114</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="G209" s="4"/>
       <c r="H209">
         <v>60</v>
       </c>
@@ -19244,18 +19306,19 @@
       <c r="B210">
         <v>2</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="4">
         <v>47</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G210" s="4"/>
       <c r="H210">
         <v>43</v>
       </c>
@@ -19322,18 +19385,19 @@
       <c r="B211">
         <v>3</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="4">
         <v>80</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="G211" s="4"/>
       <c r="H211">
         <v>42</v>
       </c>
@@ -19400,18 +19464,19 @@
       <c r="B212">
         <v>4</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="4">
         <v>159</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="4" t="s">
         <v>380</v>
       </c>
+      <c r="G212" s="4"/>
       <c r="H212">
         <v>63</v>
       </c>
@@ -19478,18 +19543,19 @@
       <c r="B213">
         <v>5</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="4">
         <v>755</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G213" s="4"/>
       <c r="H213">
         <v>64</v>
       </c>
@@ -19556,18 +19622,19 @@
       <c r="B214">
         <v>6</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="4">
         <v>80</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G214" s="4"/>
       <c r="H214">
         <v>66</v>
       </c>
@@ -19634,7 +19701,7 @@
       <c r="B215">
         <v>7</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="4">
         <v>768</v>
       </c>
       <c r="D215" s="4" t="s">
@@ -19713,7 +19780,7 @@
       <c r="B216">
         <v>8</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="4">
         <v>88</v>
       </c>
       <c r="D216" s="4" t="s">
@@ -20100,9 +20167,8 @@
       <c r="Z220" t="s">
         <v>144</v>
       </c>
-      <c r="AA220" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>74_3</v>
+      <c r="AA220" s="3" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.25">
@@ -20497,11 +20563,15 @@
       <c r="Z225" t="s">
         <v>51</v>
       </c>
-      <c r="AA225" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>74_8</v>
-      </c>
-      <c r="AC225" s="7"/>
+      <c r="AA225" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="AB225" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC225" s="6" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -20741,18 +20811,19 @@
       <c r="B229">
         <v>4</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="4">
         <v>7</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="G229" s="4"/>
       <c r="H229">
         <v>51</v>
       </c>
@@ -20819,15 +20890,17 @@
       <c r="B230">
         <v>5</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="4">
         <v>47</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="4" t="s">
         <v>767</v>
       </c>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
       <c r="H230">
         <v>71</v>
       </c>
@@ -20894,18 +20967,19 @@
       <c r="B231">
         <v>6</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="4">
         <v>1114</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G231" s="4"/>
       <c r="H231">
         <v>54</v>
       </c>
@@ -20972,18 +21046,19 @@
       <c r="B232">
         <v>1</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="4">
         <v>1114</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G232" s="4"/>
       <c r="H232">
         <v>54</v>
       </c>
@@ -21050,18 +21125,19 @@
       <c r="B233">
         <v>2</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="4">
         <v>1</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="4" t="s">
         <v>778</v>
       </c>
+      <c r="G233" s="4"/>
       <c r="H233">
         <v>45</v>
       </c>
@@ -21128,15 +21204,17 @@
       <c r="B234">
         <v>3</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="4">
         <v>716</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="4" t="s">
         <v>286</v>
       </c>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
       <c r="H234">
         <v>56</v>
       </c>
@@ -21203,18 +21281,19 @@
       <c r="B235">
         <v>4</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="4">
         <v>1176</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G235" s="4"/>
       <c r="H235">
         <v>55</v>
       </c>
@@ -21281,18 +21360,19 @@
       <c r="B236">
         <v>5</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="4">
         <v>47</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="G236" s="4"/>
       <c r="H236">
         <v>69</v>
       </c>
@@ -21347,9 +21427,8 @@
       <c r="Z236" t="s">
         <v>32</v>
       </c>
-      <c r="AA236" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>80_5</v>
+      <c r="AA236" s="3" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="237" spans="1:29" x14ac:dyDescent="0.25">
@@ -21359,18 +21438,19 @@
       <c r="B237">
         <v>6</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="4">
         <v>7</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="G237" s="4"/>
       <c r="H237">
         <v>60</v>
       </c>
@@ -21437,19 +21517,19 @@
       <c r="B238">
         <v>7</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="4">
         <v>724</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H238">

--- a/tools/vizitky.xlsx
+++ b/tools/vizitky.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="806">
   <si>
     <t>OBVOD</t>
   </si>
@@ -2426,9 +2431,6 @@
   </si>
   <si>
     <t>Kandidát možnost nabízenou Českým rozhlasem k natočení vizitky nevyužil.</t>
-  </si>
-  <si>
-    <t>Kandidát možnost nabízenou Českým rozhlasem k natočení vizitky zatím nevyužil.</t>
   </si>
   <si>
     <t>74_8</t>
@@ -2874,7 +2876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2884,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F184" sqref="F184"/>
+    <sheetView tabSelected="1" topLeftCell="E190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA199" sqref="AA199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5046,7 +5048,7 @@
         <v>801</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -18424,9 +18426,8 @@
       <c r="Z198" t="s">
         <v>67</v>
       </c>
-      <c r="AA198" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>65_4</v>
+      <c r="AA198" s="3" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.25">
@@ -20168,7 +20169,7 @@
         <v>144</v>
       </c>
       <c r="AA220" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.25">
@@ -20564,7 +20565,7 @@
         <v>51</v>
       </c>
       <c r="AA225" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AB225" s="3" t="s">
         <v>801</v>

--- a/tools/vizitky.xlsx
+++ b/tools/vizitky.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVEL\senat-vizitky-18\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83092A5A-B72F-4A62-BF72-31D923F03592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="802">
   <si>
     <t>OBVOD</t>
   </si>
@@ -2017,18 +2018,6 @@
   </si>
   <si>
     <t>Koalice KDU-ČSL a NV</t>
-  </si>
-  <si>
-    <t>Gawlas</t>
-  </si>
-  <si>
-    <t>zeměměřič</t>
-  </si>
-  <si>
-    <t>Česká Ves</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>Adámek</t>
@@ -2442,7 +2431,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2571,8 +2560,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Výpočet" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2883,44 +2872,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC238"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA199" sqref="AA199"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198:XFD198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="1" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" customWidth="1"/>
-    <col min="26" max="26" width="51.5703125" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="3"/>
-    <col min="28" max="28" width="9.140625" style="3"/>
+    <col min="18" max="18" width="12.109375" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" customWidth="1"/>
+    <col min="26" max="26" width="51.5546875" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="3"/>
+    <col min="28" max="28" width="9.109375" style="3"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3000,16 +2989,16 @@
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3088,7 +3077,7 @@
         <v>2_1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3165,7 +3154,7 @@
         <v>2_2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3242,7 +3231,7 @@
         <v>2_3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3321,7 +3310,7 @@
         <v>2_4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3398,7 +3387,7 @@
         <v>2_5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3475,7 +3464,7 @@
         <v>2_6</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3552,7 +3541,7 @@
         <v>2_7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3631,7 +3620,7 @@
         <v>2_8</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3708,7 +3697,7 @@
         <v>2_9</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3787,7 +3776,7 @@
         <v>5_1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3864,7 +3853,7 @@
         <v>5_2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3943,7 +3932,7 @@
         <v>5_3</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -4024,7 +4013,7 @@
         <v>5_4</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4103,7 +4092,7 @@
         <v>5_5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4182,7 +4171,7 @@
         <v>5_6</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4260,7 +4249,7 @@
         <v>5_7</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -4338,7 +4327,7 @@
         <v>5_8</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -4416,7 +4405,7 @@
         <v>5_9</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4492,7 +4481,7 @@
         <v>8_1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4570,7 +4559,7 @@
         <v>8_2</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -4651,7 +4640,7 @@
         <v>8_3</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -4728,7 +4717,7 @@
         <v>8_4</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8</v>
       </c>
@@ -4807,7 +4796,7 @@
         <v>8_5</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -4888,7 +4877,7 @@
         <v>8_6</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
@@ -4969,7 +4958,7 @@
         <v>8_7</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -5042,16 +5031,16 @@
         <v>144</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -5130,7 +5119,7 @@
         <v>11_1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11</v>
       </c>
@@ -5205,16 +5194,16 @@
         <v>134</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
@@ -5291,7 +5280,7 @@
         <v>11_3</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11</v>
       </c>
@@ -5370,7 +5359,7 @@
         <v>11_4</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>11</v>
       </c>
@@ -5449,7 +5438,7 @@
         <v>11_5</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>11</v>
       </c>
@@ -5528,7 +5517,7 @@
         <v>11_6</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>11</v>
       </c>
@@ -5607,7 +5596,7 @@
         <v>11_7</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>11</v>
       </c>
@@ -5686,7 +5675,7 @@
         <v>11_8</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
@@ -5765,7 +5754,7 @@
         <v>14_1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>14</v>
       </c>
@@ -5844,7 +5833,7 @@
         <v>14_2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -5923,7 +5912,7 @@
         <v>14_3</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -6004,7 +5993,7 @@
         <v>14_4</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>14</v>
       </c>
@@ -6085,7 +6074,7 @@
         <v>14_5</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -6164,7 +6153,7 @@
         <v>14_6</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -6241,7 +6230,7 @@
         <v>14_7</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -6320,7 +6309,7 @@
         <v>14_8</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>17</v>
       </c>
@@ -6401,7 +6390,7 @@
         <v>17_1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>17</v>
       </c>
@@ -6478,7 +6467,7 @@
         <v>17_2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>17</v>
       </c>
@@ -6559,7 +6548,7 @@
         <v>17_3</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>17</v>
       </c>
@@ -6638,7 +6627,7 @@
         <v>17_4</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>17</v>
       </c>
@@ -6715,7 +6704,7 @@
         <v>17_5</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>17</v>
       </c>
@@ -6794,7 +6783,7 @@
         <v>17_6</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>17</v>
       </c>
@@ -6872,7 +6861,7 @@
         <v>17_7</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>17</v>
       </c>
@@ -6950,7 +6939,7 @@
         <v>17_8</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>20</v>
       </c>
@@ -7028,7 +7017,7 @@
         <v>20_1</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20</v>
       </c>
@@ -7109,7 +7098,7 @@
         <v>20_2</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>20</v>
       </c>
@@ -7184,7 +7173,7 @@
         <v>20_3</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>20</v>
       </c>
@@ -7265,7 +7254,7 @@
         <v>20_4</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20</v>
       </c>
@@ -7346,7 +7335,7 @@
         <v>20_5</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20</v>
       </c>
@@ -7421,7 +7410,7 @@
         <v>20_6</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20</v>
       </c>
@@ -7499,7 +7488,7 @@
         <v>20_7</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20</v>
       </c>
@@ -7578,7 +7567,7 @@
       </c>
       <c r="AC59" s="9"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>23</v>
       </c>
@@ -7652,10 +7641,10 @@
         <v>256</v>
       </c>
       <c r="AA60" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>23</v>
       </c>
@@ -7733,13 +7722,13 @@
         <v>23_2</v>
       </c>
       <c r="AB61" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AC61" s="5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>23</v>
       </c>
@@ -7814,7 +7803,7 @@
         <v>23_3</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>23</v>
       </c>
@@ -7889,7 +7878,7 @@
         <v>23_4</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>23</v>
       </c>
@@ -7964,7 +7953,7 @@
         <v>23_5</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>23</v>
       </c>
@@ -8042,7 +8031,7 @@
         <v>23_6</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>23</v>
       </c>
@@ -8123,7 +8112,7 @@
         <v>23_7</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>23</v>
       </c>
@@ -8204,7 +8193,7 @@
         <v>23_8</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>23</v>
       </c>
@@ -8279,7 +8268,7 @@
         <v>23_9</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>23</v>
       </c>
@@ -8357,7 +8346,7 @@
         <v>23_10</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>23</v>
       </c>
@@ -8435,7 +8424,7 @@
         <v>23_11</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>23</v>
       </c>
@@ -8513,7 +8502,7 @@
         <v>23_12</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>23</v>
       </c>
@@ -8591,7 +8580,7 @@
         <v>23_13</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>23</v>
       </c>
@@ -8672,7 +8661,7 @@
         <v>23_14</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>23</v>
       </c>
@@ -8747,7 +8736,7 @@
         <v>23_15</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>23</v>
       </c>
@@ -8825,7 +8814,7 @@
         <v>23_16</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>26</v>
       </c>
@@ -8906,7 +8895,7 @@
         <v>26_1</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>26</v>
       </c>
@@ -8987,7 +8976,7 @@
         <v>26_2</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>26</v>
       </c>
@@ -9062,7 +9051,7 @@
         <v>26_3</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>26</v>
       </c>
@@ -9137,7 +9126,7 @@
         <v>26_4</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>26</v>
       </c>
@@ -9212,7 +9201,7 @@
         <v>26_5</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>26</v>
       </c>
@@ -9290,7 +9279,7 @@
         <v>26_6</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>26</v>
       </c>
@@ -9365,7 +9354,7 @@
         <v>26_7</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>26</v>
       </c>
@@ -9443,7 +9432,7 @@
         <v>26_8</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>26</v>
       </c>
@@ -9521,7 +9510,7 @@
         <v>26_9</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>29</v>
       </c>
@@ -9596,7 +9585,7 @@
         <v>29_1</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>29</v>
       </c>
@@ -9674,7 +9663,7 @@
         <v>29_2</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>29</v>
       </c>
@@ -9752,7 +9741,7 @@
         <v>29_3</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>29</v>
       </c>
@@ -9830,7 +9819,7 @@
         <v>29_4</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>29</v>
       </c>
@@ -9908,7 +9897,7 @@
         <v>29_5</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>29</v>
       </c>
@@ -9983,7 +9972,7 @@
         <v>29_6</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>29</v>
       </c>
@@ -10058,7 +10047,7 @@
         <v>29_7</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>29</v>
       </c>
@@ -10136,7 +10125,7 @@
         <v>29_8</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>29</v>
       </c>
@@ -10214,7 +10203,7 @@
         <v>29_9</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>32</v>
       </c>
@@ -10289,7 +10278,7 @@
         <v>32_1</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>32</v>
       </c>
@@ -10363,16 +10352,16 @@
         <v>366</v>
       </c>
       <c r="AA95" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AB95" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>32</v>
       </c>
@@ -10447,7 +10436,7 @@
         <v>32_3</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>32</v>
       </c>
@@ -10522,7 +10511,7 @@
         <v>32_4</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>32</v>
       </c>
@@ -10597,7 +10586,7 @@
         <v>32_5</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>32</v>
       </c>
@@ -10675,7 +10664,7 @@
         <v>32_6</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>32</v>
       </c>
@@ -10753,7 +10742,7 @@
         <v>32_7</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>32</v>
       </c>
@@ -10831,7 +10820,7 @@
         <v>32_8</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>32</v>
       </c>
@@ -10908,10 +10897,10 @@
         <v>292</v>
       </c>
       <c r="AA102" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>35</v>
       </c>
@@ -10989,7 +10978,7 @@
         <v>35_1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>35</v>
       </c>
@@ -11070,7 +11059,7 @@
         <v>35_2</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>35</v>
       </c>
@@ -11145,7 +11134,7 @@
         <v>35_3</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>35</v>
       </c>
@@ -11223,7 +11212,7 @@
         <v>35_4</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>35</v>
       </c>
@@ -11301,7 +11290,7 @@
         <v>35_5</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>35</v>
       </c>
@@ -11376,7 +11365,7 @@
         <v>35_6</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>35</v>
       </c>
@@ -11451,7 +11440,7 @@
         <v>35_7</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>38</v>
       </c>
@@ -11526,7 +11515,7 @@
         <v>38_1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>38</v>
       </c>
@@ -11604,7 +11593,7 @@
         <v>38_2</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>38</v>
       </c>
@@ -11679,7 +11668,7 @@
         <v>38_3</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>38</v>
       </c>
@@ -11760,7 +11749,7 @@
         <v>38_4</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>38</v>
       </c>
@@ -11836,7 +11825,7 @@
         <v>38_5</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>38</v>
       </c>
@@ -11914,7 +11903,7 @@
         <v>38_6</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>38</v>
       </c>
@@ -11990,7 +11979,7 @@
         <v>38_7</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>41</v>
       </c>
@@ -12068,7 +12057,7 @@
         <v>41_1</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>41</v>
       </c>
@@ -12146,7 +12135,7 @@
         <v>41_2</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>41</v>
       </c>
@@ -12224,7 +12213,7 @@
         <v>41_3</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>41</v>
       </c>
@@ -12302,7 +12291,7 @@
         <v>41_4</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>41</v>
       </c>
@@ -12380,7 +12369,7 @@
         <v>41_5</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>41</v>
       </c>
@@ -12452,11 +12441,11 @@
         <v>51</v>
       </c>
       <c r="AA122" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="AC122" s="6"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>41</v>
       </c>
@@ -12534,7 +12523,7 @@
         <v>41_7</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>41</v>
       </c>
@@ -12612,7 +12601,7 @@
         <v>41_8</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>41</v>
       </c>
@@ -12693,7 +12682,7 @@
         <v>41_9</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>41</v>
       </c>
@@ -12774,7 +12763,7 @@
         <v>41_10</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>41</v>
       </c>
@@ -12853,7 +12842,7 @@
         <v>41_11</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>44</v>
       </c>
@@ -12932,7 +12921,7 @@
         <v>44_1</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>44</v>
       </c>
@@ -13009,7 +12998,7 @@
         <v>44_2</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>44</v>
       </c>
@@ -13088,7 +13077,7 @@
         <v>44_3</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>44</v>
       </c>
@@ -13165,7 +13154,7 @@
         <v>44_4</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>44</v>
       </c>
@@ -13242,7 +13231,7 @@
         <v>44_5</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>44</v>
       </c>
@@ -13321,7 +13310,7 @@
         <v>44_6</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>44</v>
       </c>
@@ -13402,7 +13391,7 @@
         <v>44_7</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>44</v>
       </c>
@@ -13481,7 +13470,7 @@
         <v>44_8</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>44</v>
       </c>
@@ -13560,7 +13549,7 @@
         <v>44_9</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>44</v>
       </c>
@@ -13639,7 +13628,7 @@
         <v>44_10</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>44</v>
       </c>
@@ -13718,7 +13707,7 @@
         <v>44_11</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>44</v>
       </c>
@@ -13795,7 +13784,7 @@
         <v>44_12</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>44</v>
       </c>
@@ -13876,7 +13865,7 @@
         <v>44_13</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>44</v>
       </c>
@@ -13955,7 +13944,7 @@
         <v>44_14</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>47</v>
       </c>
@@ -14034,7 +14023,7 @@
         <v>47_1</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>47</v>
       </c>
@@ -14115,7 +14104,7 @@
         <v>47_2</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>47</v>
       </c>
@@ -14192,7 +14181,7 @@
         <v>47_3</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>47</v>
       </c>
@@ -14269,7 +14258,7 @@
         <v>47_4</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>47</v>
       </c>
@@ -14348,7 +14337,7 @@
         <v>47_5</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>47</v>
       </c>
@@ -14425,7 +14414,7 @@
         <v>47_6</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>50</v>
       </c>
@@ -14502,7 +14491,7 @@
         <v>50_1</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>50</v>
       </c>
@@ -14581,7 +14570,7 @@
         <v>50_2</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>50</v>
       </c>
@@ -14658,7 +14647,7 @@
         <v>50_3</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>50</v>
       </c>
@@ -14737,7 +14726,7 @@
         <v>50_4</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>50</v>
       </c>
@@ -14818,7 +14807,7 @@
         <v>50_5</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>50</v>
       </c>
@@ -14898,7 +14887,7 @@
       </c>
       <c r="AC153" s="6"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>50</v>
       </c>
@@ -14975,7 +14964,7 @@
         <v>50_7</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>50</v>
       </c>
@@ -15052,7 +15041,7 @@
         <v>50_8</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>50</v>
       </c>
@@ -15131,7 +15120,7 @@
         <v>50_9</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>53</v>
       </c>
@@ -15210,7 +15199,7 @@
         <v>53_1</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>53</v>
       </c>
@@ -15291,7 +15280,7 @@
         <v>53_2</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>53</v>
       </c>
@@ -15368,7 +15357,7 @@
         <v>53_3</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>53</v>
       </c>
@@ -15445,7 +15434,7 @@
         <v>53_4</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>53</v>
       </c>
@@ -15526,7 +15515,7 @@
         <v>53_5</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>53</v>
       </c>
@@ -15605,7 +15594,7 @@
         <v>53_6</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>53</v>
       </c>
@@ -15686,7 +15675,7 @@
         <v>53_7</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>53</v>
       </c>
@@ -15763,7 +15752,7 @@
         <v>53_8</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>53</v>
       </c>
@@ -15842,7 +15831,7 @@
         <v>53_9</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>56</v>
       </c>
@@ -15921,7 +15910,7 @@
         <v>56_1</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>56</v>
       </c>
@@ -16000,7 +15989,7 @@
         <v>56_2</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>56</v>
       </c>
@@ -16078,7 +16067,7 @@
         <v>56_3</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>56</v>
       </c>
@@ -16156,7 +16145,7 @@
         <v>56_4</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>56</v>
       </c>
@@ -16234,7 +16223,7 @@
         <v>56_5</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>56</v>
       </c>
@@ -16311,7 +16300,7 @@
         <v>56_6</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>56</v>
       </c>
@@ -16388,7 +16377,7 @@
         <v>56_7</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>59</v>
       </c>
@@ -16469,7 +16458,7 @@
         <v>59_1</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>59</v>
       </c>
@@ -16548,7 +16537,7 @@
         <v>59_2</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>59</v>
       </c>
@@ -16625,7 +16614,7 @@
         <v>59_3</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>59</v>
       </c>
@@ -16704,7 +16693,7 @@
         <v>59_4</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>59</v>
       </c>
@@ -16783,7 +16772,7 @@
         <v>59_5</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>59</v>
       </c>
@@ -16860,7 +16849,7 @@
         <v>59_6</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>59</v>
       </c>
@@ -16939,7 +16928,7 @@
         <v>59_7</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>59</v>
       </c>
@@ -17018,7 +17007,7 @@
         <v>59_8</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>59</v>
       </c>
@@ -17095,7 +17084,7 @@
         <v>59_9</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>59</v>
       </c>
@@ -17176,7 +17165,7 @@
         <v>59_10</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>59</v>
       </c>
@@ -17255,7 +17244,7 @@
         <v>59_11</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>62</v>
       </c>
@@ -17332,7 +17321,7 @@
         <v>62_1</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>62</v>
       </c>
@@ -17411,7 +17400,7 @@
         <v>62_2</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>62</v>
       </c>
@@ -17488,7 +17477,7 @@
         <v>62_3</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>62</v>
       </c>
@@ -17567,7 +17556,7 @@
         <v>62_4</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>62</v>
       </c>
@@ -17648,7 +17637,7 @@
         <v>62_5</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>62</v>
       </c>
@@ -17727,7 +17716,7 @@
         <v>62_6</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>62</v>
       </c>
@@ -17804,7 +17793,7 @@
         <v>62_7</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>62</v>
       </c>
@@ -17883,7 +17872,7 @@
         <v>62_8</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>62</v>
       </c>
@@ -17962,7 +17951,7 @@
         <v>62_9</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>62</v>
       </c>
@@ -18041,7 +18030,7 @@
         <v>62_10</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>62</v>
       </c>
@@ -18118,7 +18107,7 @@
         <v>62_11</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>65</v>
       </c>
@@ -18193,11 +18182,11 @@
         <v>51</v>
       </c>
       <c r="AA195" s="3" t="str">
-        <f t="shared" ref="AA195:AA238" si="3">A195 &amp; "_" &amp; B195</f>
+        <f t="shared" ref="AA195:AA237" si="3">A195 &amp; "_" &amp; B195</f>
         <v>65_1</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>65</v>
       </c>
@@ -18275,7 +18264,7 @@
         <v>65_2</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>65</v>
       </c>
@@ -18353,45 +18342,45 @@
         <v>65_3</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>65</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C198" s="4">
-        <v>80</v>
+        <v>768</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>666</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="H198">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I198" t="s">
         <v>667</v>
       </c>
       <c r="J198" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K198">
-        <v>569356</v>
+        <v>523704</v>
       </c>
       <c r="L198">
         <v>99</v>
       </c>
       <c r="M198">
-        <v>80</v>
+        <v>768</v>
       </c>
       <c r="N198" t="s">
-        <v>669</v>
+        <v>31</v>
       </c>
       <c r="O198">
         <v>0</v>
@@ -18424,48 +18413,49 @@
         <v>0</v>
       </c>
       <c r="Z198" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA198" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="AA198" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>65_5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>65</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" s="4">
-        <v>768</v>
+        <v>47</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="E199" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H199">
+        <v>61</v>
+      </c>
+      <c r="I199" t="s">
+        <v>669</v>
+      </c>
+      <c r="J199" t="s">
         <v>670</v>
       </c>
-      <c r="F199" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H199">
-        <v>45</v>
-      </c>
-      <c r="I199" t="s">
-        <v>671</v>
-      </c>
-      <c r="J199" t="s">
-        <v>664</v>
-      </c>
       <c r="K199">
-        <v>523704</v>
+        <v>540978</v>
       </c>
       <c r="L199">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="M199">
-        <v>768</v>
+        <v>47</v>
       </c>
       <c r="N199" t="s">
         <v>31</v>
@@ -18501,49 +18491,52 @@
         <v>0</v>
       </c>
       <c r="Z199" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AA199" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>65_5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
+        <v>65_6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>65</v>
       </c>
       <c r="B200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" s="4">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>145</v>
+        <v>671</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>672</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="G200" t="s">
+        <v>547</v>
       </c>
       <c r="H200">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I200" t="s">
         <v>673</v>
       </c>
       <c r="J200" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="K200">
-        <v>540978</v>
+        <v>523704</v>
       </c>
       <c r="L200">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="M200">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="N200" t="s">
         <v>31</v>
@@ -18579,52 +18572,47 @@
         <v>0</v>
       </c>
       <c r="Z200" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="AA200" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>65_6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
+        <v>65_7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B201">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C201" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D201" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F201" s="4"/>
+      <c r="H201">
+        <v>68</v>
+      </c>
+      <c r="I201" t="s">
+        <v>348</v>
+      </c>
+      <c r="J201" t="s">
         <v>675</v>
       </c>
-      <c r="E201" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G201" t="s">
-        <v>547</v>
-      </c>
-      <c r="H201">
-        <v>59</v>
-      </c>
-      <c r="I201" t="s">
-        <v>677</v>
-      </c>
-      <c r="J201" t="s">
-        <v>664</v>
-      </c>
       <c r="K201">
-        <v>523704</v>
+        <v>507270</v>
       </c>
       <c r="L201">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M201">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N201" t="s">
         <v>31</v>
@@ -18660,47 +18648,47 @@
         <v>0</v>
       </c>
       <c r="Z201" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="AA201" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>65_7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
+        <v>68_1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>68</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" s="4">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F202" s="4"/>
       <c r="H202">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I202" t="s">
-        <v>348</v>
+        <v>677</v>
       </c>
       <c r="J202" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K202">
-        <v>507270</v>
+        <v>8</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M202">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="N202" t="s">
         <v>31</v>
@@ -18736,47 +18724,49 @@
         <v>0</v>
       </c>
       <c r="Z202" t="s">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="AA202" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>68_1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
+        <v>68_2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>68</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C203" s="4">
-        <v>720</v>
+        <v>1114</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>47</v>
+        <v>679</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="F203" s="4"/>
+      <c r="F203" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H203">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I203" t="s">
         <v>681</v>
       </c>
       <c r="J203" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="K203">
         <v>8</v>
       </c>
       <c r="L203">
-        <v>99</v>
+        <v>1114</v>
       </c>
       <c r="M203">
-        <v>720</v>
+        <v>1114</v>
       </c>
       <c r="N203" t="s">
         <v>31</v>
@@ -18812,49 +18802,54 @@
         <v>0</v>
       </c>
       <c r="Z203" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA203" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>68_2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="AA203" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB203" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="AC203" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>68</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C204" s="4">
-        <v>1114</v>
+        <v>47</v>
       </c>
       <c r="D204" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="E204" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="E204" s="4" t="s">
-        <v>684</v>
-      </c>
       <c r="F204" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H204">
         <v>60</v>
       </c>
       <c r="I204" t="s">
+        <v>684</v>
+      </c>
+      <c r="J204" t="s">
         <v>685</v>
       </c>
-      <c r="J204" t="s">
-        <v>682</v>
-      </c>
       <c r="K204">
-        <v>8</v>
+        <v>512907</v>
       </c>
       <c r="L204">
-        <v>1114</v>
+        <v>47</v>
       </c>
       <c r="M204">
-        <v>1114</v>
+        <v>47</v>
       </c>
       <c r="N204" t="s">
         <v>31</v>
@@ -18890,54 +18885,54 @@
         <v>0</v>
       </c>
       <c r="Z204" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AA204" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AB204" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AC204" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>68</v>
       </c>
       <c r="B205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C205" s="4">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D205" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E205" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="E205" s="4" t="s">
+      <c r="F205" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H205">
+        <v>54</v>
+      </c>
+      <c r="I205" t="s">
         <v>687</v>
       </c>
-      <c r="F205" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H205">
-        <v>60</v>
-      </c>
-      <c r="I205" t="s">
+      <c r="J205" t="s">
         <v>688</v>
       </c>
-      <c r="J205" t="s">
-        <v>689</v>
-      </c>
       <c r="K205">
-        <v>512907</v>
+        <v>509612</v>
       </c>
       <c r="L205">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="M205">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N205" t="s">
         <v>31</v>
@@ -18973,30 +18968,25 @@
         <v>0</v>
       </c>
       <c r="Z205" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA205" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="AB205" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="AC205" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="AA205" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>68_5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>68</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" s="4">
-        <v>80</v>
+        <v>1329</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>326</v>
+        <v>689</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>690</v>
@@ -19004,8 +18994,9 @@
       <c r="F206" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="G206" s="4"/>
       <c r="H206">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I206" t="s">
         <v>691</v>
@@ -19014,13 +19005,13 @@
         <v>692</v>
       </c>
       <c r="K206">
-        <v>509612</v>
+        <v>506214</v>
       </c>
       <c r="L206">
-        <v>99</v>
+        <v>721</v>
       </c>
       <c r="M206">
-        <v>80</v>
+        <v>721</v>
       </c>
       <c r="N206" t="s">
         <v>31</v>
@@ -19056,50 +19047,50 @@
         <v>0</v>
       </c>
       <c r="Z206" t="s">
-        <v>67</v>
+        <v>693</v>
       </c>
       <c r="AA206" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>68_5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+        <v>68_6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>68</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" s="4">
-        <v>1329</v>
+        <v>768</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>90</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I207" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J207" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="K207">
-        <v>506214</v>
+        <v>8</v>
       </c>
       <c r="L207">
-        <v>721</v>
+        <v>768</v>
       </c>
       <c r="M207">
-        <v>721</v>
+        <v>768</v>
       </c>
       <c r="N207" t="s">
         <v>31</v>
@@ -19135,50 +19126,50 @@
         <v>0</v>
       </c>
       <c r="Z207" t="s">
-        <v>697</v>
+        <v>55</v>
       </c>
       <c r="AA207" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>68_6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+        <v>68_7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B208">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C208" s="4">
-        <v>768</v>
+        <v>1114</v>
       </c>
       <c r="D208" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="E208" s="4" t="s">
-        <v>699</v>
-      </c>
       <c r="F208" s="4" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I208" t="s">
+        <v>699</v>
+      </c>
+      <c r="J208" t="s">
         <v>700</v>
       </c>
-      <c r="J208" t="s">
-        <v>682</v>
-      </c>
       <c r="K208">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L208">
-        <v>768</v>
+        <v>99</v>
       </c>
       <c r="M208">
-        <v>768</v>
+        <v>1114</v>
       </c>
       <c r="N208" t="s">
         <v>31</v>
@@ -19214,22 +19205,22 @@
         <v>0</v>
       </c>
       <c r="Z208" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AA208" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>68_7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71_1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>71</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C209" s="4">
-        <v>1114</v>
+        <v>47</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>701</v>
@@ -19238,26 +19229,26 @@
         <v>702</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I209" t="s">
         <v>703</v>
       </c>
       <c r="J209" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K209">
         <v>4</v>
       </c>
       <c r="L209">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="M209">
-        <v>1114</v>
+        <v>47</v>
       </c>
       <c r="N209" t="s">
         <v>31</v>
@@ -19293,50 +19284,50 @@
         <v>0</v>
       </c>
       <c r="Z209" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AA209" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>71_1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71_2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>71</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C210" s="4">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D210" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="E210" s="4" t="s">
-        <v>706</v>
-      </c>
       <c r="F210" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I210" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J210" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K210">
         <v>4</v>
       </c>
       <c r="L210">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="M210">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N210" t="s">
         <v>31</v>
@@ -19372,50 +19363,50 @@
         <v>0</v>
       </c>
       <c r="Z210" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="AA210" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>71_2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71_3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>71</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C211" s="4">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="D211" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E211" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="E211" s="4" t="s">
-        <v>709</v>
-      </c>
       <c r="F211" s="4" t="s">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I211" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J211" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K211">
         <v>4</v>
       </c>
       <c r="L211">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="M211">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="N211" t="s">
         <v>31</v>
@@ -19451,50 +19442,50 @@
         <v>0</v>
       </c>
       <c r="Z211" t="s">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="AA211" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>71_3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71_4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>71</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C212" s="4">
-        <v>159</v>
+        <v>755</v>
       </c>
       <c r="D212" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E212" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="E212" s="4" t="s">
-        <v>712</v>
-      </c>
       <c r="F212" s="4" t="s">
-        <v>380</v>
+        <v>28</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I212" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J212" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K212">
         <v>4</v>
       </c>
       <c r="L212">
-        <v>159</v>
+        <v>755</v>
       </c>
       <c r="M212">
-        <v>159</v>
+        <v>755</v>
       </c>
       <c r="N212" t="s">
         <v>31</v>
@@ -19530,50 +19521,50 @@
         <v>0</v>
       </c>
       <c r="Z212" t="s">
-        <v>258</v>
+        <v>713</v>
       </c>
       <c r="AA212" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>71_4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71_5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>71</v>
       </c>
       <c r="B213">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" s="4">
-        <v>755</v>
+        <v>80</v>
       </c>
       <c r="D213" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G213" s="4"/>
       <c r="H213">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I213" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J213" t="s">
-        <v>704</v>
+        <v>75</v>
       </c>
       <c r="K213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L213">
-        <v>755</v>
+        <v>99</v>
       </c>
       <c r="M213">
-        <v>755</v>
+        <v>80</v>
       </c>
       <c r="N213" t="s">
         <v>31</v>
@@ -19609,50 +19600,50 @@
         <v>0</v>
       </c>
       <c r="Z213" t="s">
-        <v>717</v>
+        <v>67</v>
       </c>
       <c r="AA213" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>71_5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71_6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>71</v>
       </c>
       <c r="B214">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" s="4">
-        <v>80</v>
+        <v>768</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>64</v>
+        <v>716</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G214" s="4"/>
-      <c r="H214">
-        <v>66</v>
-      </c>
-      <c r="I214" t="s">
-        <v>719</v>
+      <c r="H214" s="4">
+        <v>57</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>718</v>
       </c>
       <c r="J214" t="s">
-        <v>75</v>
+        <v>700</v>
       </c>
       <c r="K214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L214">
         <v>99</v>
       </c>
       <c r="M214">
-        <v>80</v>
+        <v>768</v>
       </c>
       <c r="N214" t="s">
         <v>31</v>
@@ -19688,50 +19679,52 @@
         <v>0</v>
       </c>
       <c r="Z214" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AA214" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>71_6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71_7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>71</v>
       </c>
       <c r="B215">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" s="4">
-        <v>768</v>
+        <v>88</v>
       </c>
       <c r="D215" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F215" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="E215" s="4" t="s">
+      <c r="G215" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H215" s="4">
+        <v>48</v>
+      </c>
+      <c r="I215" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="F215" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G215" s="4"/>
-      <c r="H215" s="4">
-        <v>57</v>
-      </c>
-      <c r="I215" s="4" t="s">
-        <v>722</v>
-      </c>
       <c r="J215" t="s">
-        <v>704</v>
+        <v>174</v>
       </c>
       <c r="K215">
-        <v>4</v>
+        <v>544256</v>
       </c>
       <c r="L215">
         <v>99</v>
       </c>
       <c r="M215">
-        <v>768</v>
+        <v>88</v>
       </c>
       <c r="N215" t="s">
         <v>31</v>
@@ -19767,22 +19760,22 @@
         <v>0</v>
       </c>
       <c r="Z215" t="s">
-        <v>55</v>
+        <v>722</v>
       </c>
       <c r="AA215" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>71_7</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71_8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>71</v>
       </c>
       <c r="B216">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" s="4">
-        <v>88</v>
+        <v>720</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>135</v>
@@ -19791,28 +19784,28 @@
         <v>723</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>724</v>
+        <v>90</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>131</v>
       </c>
       <c r="H216" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J216" t="s">
-        <v>174</v>
+        <v>700</v>
       </c>
       <c r="K216">
-        <v>544256</v>
+        <v>4</v>
       </c>
       <c r="L216">
         <v>99</v>
       </c>
       <c r="M216">
-        <v>88</v>
+        <v>720</v>
       </c>
       <c r="N216" t="s">
         <v>31</v>
@@ -19848,52 +19841,50 @@
         <v>0</v>
       </c>
       <c r="Z216" t="s">
-        <v>726</v>
+        <v>134</v>
       </c>
       <c r="AA216" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>71_8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71_9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B217">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C217" s="4">
-        <v>720</v>
+        <v>47</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E217" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4">
+        <v>68</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="J217" t="s">
         <v>727</v>
       </c>
-      <c r="F217" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G217" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H217" s="4">
-        <v>49</v>
-      </c>
-      <c r="I217" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="J217" t="s">
-        <v>704</v>
-      </c>
       <c r="K217">
-        <v>4</v>
+        <v>555088</v>
       </c>
       <c r="L217">
         <v>99</v>
       </c>
       <c r="M217">
-        <v>720</v>
+        <v>47</v>
       </c>
       <c r="N217" t="s">
         <v>31</v>
@@ -19929,50 +19920,50 @@
         <v>0</v>
       </c>
       <c r="Z217" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="AA217" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>71_9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+        <v>74_1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>74</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C218" s="4">
+        <v>7</v>
+      </c>
+      <c r="D218" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E218" s="4" t="s">
-        <v>729</v>
+        <v>674</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>636</v>
+        <v>28</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="4">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>730</v>
+        <v>348</v>
       </c>
       <c r="J218" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K218">
-        <v>555088</v>
+        <v>599051</v>
       </c>
       <c r="L218">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="M218">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="N218" t="s">
         <v>31</v>
@@ -20008,50 +19999,50 @@
         <v>0</v>
       </c>
       <c r="Z218" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="AA218" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>74_1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+        <v>74_2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>74</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C219" s="4">
-        <v>7</v>
+        <v>1217</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>28</v>
+        <v>730</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>348</v>
+        <v>731</v>
       </c>
       <c r="J219" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="K219">
-        <v>599051</v>
+        <v>555088</v>
       </c>
       <c r="L219">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="M219">
-        <v>7</v>
+        <v>1217</v>
       </c>
       <c r="N219" t="s">
         <v>31</v>
@@ -20087,41 +20078,40 @@
         <v>0</v>
       </c>
       <c r="Z219" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA219" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>74_2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="AA219" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>74</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C220" s="4">
-        <v>1217</v>
+        <v>80</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>243</v>
+        <v>732</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>733</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>734</v>
+        <v>70</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J220" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="K220">
         <v>555088</v>
@@ -20130,7 +20120,7 @@
         <v>99</v>
       </c>
       <c r="M220">
-        <v>1217</v>
+        <v>80</v>
       </c>
       <c r="N220" t="s">
         <v>31</v>
@@ -20166,40 +20156,41 @@
         <v>0</v>
       </c>
       <c r="Z220" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA220" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="AA220" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>74_4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>74</v>
       </c>
       <c r="B221">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C221" s="4">
         <v>80</v>
       </c>
       <c r="D221" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E221" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="E221" s="4" t="s">
-        <v>737</v>
-      </c>
       <c r="F221" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J221" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="K221">
         <v>555088</v>
@@ -20244,50 +20235,52 @@
         <v>0</v>
       </c>
       <c r="Z221" t="s">
-        <v>67</v>
+        <v>738</v>
       </c>
       <c r="AA221" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>74_4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+        <v>74_5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>74</v>
       </c>
       <c r="B222">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" s="4">
-        <v>80</v>
+        <v>768</v>
       </c>
       <c r="D222" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="F222" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="F222" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G222" s="4"/>
+      <c r="G222" s="4" t="s">
+        <v>741</v>
+      </c>
       <c r="H222" s="4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J222" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="K222">
-        <v>555088</v>
+        <v>598798</v>
       </c>
       <c r="L222">
         <v>99</v>
       </c>
       <c r="M222">
-        <v>80</v>
+        <v>768</v>
       </c>
       <c r="N222" t="s">
         <v>31</v>
@@ -20323,52 +20316,50 @@
         <v>0</v>
       </c>
       <c r="Z222" t="s">
-        <v>742</v>
+        <v>55</v>
       </c>
       <c r="AA222" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>74_5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+        <v>74_6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>74</v>
       </c>
       <c r="B223">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" s="4">
-        <v>768</v>
+        <v>721</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="G223" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4">
+        <v>66</v>
+      </c>
+      <c r="I223" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="H223" s="4">
-        <v>57</v>
-      </c>
-      <c r="I223" s="4" t="s">
+      <c r="J223" t="s">
         <v>746</v>
       </c>
-      <c r="J223" t="s">
-        <v>747</v>
-      </c>
       <c r="K223">
-        <v>598798</v>
+        <v>599107</v>
       </c>
       <c r="L223">
-        <v>99</v>
+        <v>721</v>
       </c>
       <c r="M223">
-        <v>768</v>
+        <v>721</v>
       </c>
       <c r="N223" t="s">
         <v>31</v>
@@ -20404,129 +20395,132 @@
         <v>0</v>
       </c>
       <c r="Z223" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AA223" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>74_6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+        <v>74_7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>74</v>
       </c>
       <c r="B224">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" s="4">
-        <v>721</v>
+        <v>1114</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>176</v>
+        <v>747</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>748</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="4">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I224" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J224" t="s">
         <v>749</v>
       </c>
-      <c r="J224" t="s">
+      <c r="K224">
+        <v>598917</v>
+      </c>
+      <c r="L224">
+        <v>1114</v>
+      </c>
+      <c r="M224">
+        <v>1114</v>
+      </c>
+      <c r="N224" t="s">
+        <v>31</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA224" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB224" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="AC224" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>77</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" s="4">
+        <v>1</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="K224">
-        <v>599107</v>
-      </c>
-      <c r="L224">
-        <v>721</v>
-      </c>
-      <c r="M224">
-        <v>721</v>
-      </c>
-      <c r="N224" t="s">
-        <v>31</v>
-      </c>
-      <c r="O224">
-        <v>0</v>
-      </c>
-      <c r="P224">
-        <v>0</v>
-      </c>
-      <c r="Q224">
-        <v>0</v>
-      </c>
-      <c r="R224">
-        <v>0</v>
-      </c>
-      <c r="S224">
-        <v>0</v>
-      </c>
-      <c r="T224">
-        <v>0</v>
-      </c>
-      <c r="U224">
-        <v>0</v>
-      </c>
-      <c r="V224">
-        <v>0</v>
-      </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-      <c r="X224">
-        <v>0</v>
-      </c>
-      <c r="Z224" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA224" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>74_7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>74</v>
-      </c>
-      <c r="B225">
-        <v>8</v>
-      </c>
-      <c r="C225" s="4">
-        <v>1114</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>132</v>
+        <v>751</v>
       </c>
       <c r="J225" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K225">
-        <v>598917</v>
+        <v>541630</v>
       </c>
       <c r="L225">
-        <v>1114</v>
+        <v>1</v>
       </c>
       <c r="M225">
-        <v>1114</v>
+        <v>1</v>
       </c>
       <c r="N225" t="s">
         <v>31</v>
@@ -20562,53 +20556,48 @@
         <v>0</v>
       </c>
       <c r="Z225" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA225" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="AB225" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="AC225" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="AA225" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>77_1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>77</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C226" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I226" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="J226" t="s">
         <v>755</v>
       </c>
-      <c r="J226" t="s">
-        <v>756</v>
-      </c>
       <c r="K226">
-        <v>541630</v>
+        <v>545163</v>
       </c>
       <c r="L226">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M226">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="N226" t="s">
         <v>31</v>
@@ -20644,25 +20633,25 @@
         <v>0</v>
       </c>
       <c r="Z226" t="s">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="AA226" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77_2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>77</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C227" s="4">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>43</v>
+        <v>756</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>757</v>
@@ -20670,7 +20659,7 @@
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>758</v>
@@ -20679,13 +20668,13 @@
         <v>759</v>
       </c>
       <c r="K227">
-        <v>545163</v>
+        <v>541711</v>
       </c>
       <c r="L227">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="M227">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="N227" t="s">
         <v>31</v>
@@ -20721,48 +20710,50 @@
         <v>0</v>
       </c>
       <c r="Z227" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AA227" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77_3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>77</v>
       </c>
       <c r="B228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C228" s="4">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D228" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E228" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="E228" s="4" t="s">
+      <c r="F228" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G228" s="4"/>
+      <c r="H228">
+        <v>51</v>
+      </c>
+      <c r="I228" t="s">
         <v>761</v>
       </c>
-      <c r="F228" s="4"/>
-      <c r="G228" s="4"/>
-      <c r="H228" s="4">
-        <v>55</v>
-      </c>
-      <c r="I228" s="4" t="s">
-        <v>762</v>
-      </c>
       <c r="J228" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="K228">
-        <v>541711</v>
+        <v>541630</v>
       </c>
       <c r="L228">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="M228">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="N228" t="s">
         <v>31</v>
@@ -20798,50 +20789,48 @@
         <v>0</v>
       </c>
       <c r="Z228" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="AA228" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77_4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>77</v>
       </c>
       <c r="B229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C229" s="4">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>47</v>
+        <v>762</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="F229" s="4"/>
       <c r="G229" s="4"/>
       <c r="H229">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I229" t="s">
+        <v>764</v>
+      </c>
+      <c r="J229" t="s">
         <v>765</v>
       </c>
-      <c r="J229" t="s">
-        <v>756</v>
-      </c>
       <c r="K229">
-        <v>541630</v>
+        <v>541648</v>
       </c>
       <c r="L229">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="M229">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N229" t="s">
         <v>31</v>
@@ -20877,22 +20866,22 @@
         <v>0</v>
       </c>
       <c r="Z229" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="AA229" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77_5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>77</v>
       </c>
       <c r="B230">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" s="4">
-        <v>47</v>
+        <v>1114</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>766</v>
@@ -20900,25 +20889,27 @@
       <c r="E230" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="F230" s="4"/>
+      <c r="F230" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G230" s="4"/>
       <c r="H230">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I230" t="s">
         <v>768</v>
       </c>
       <c r="J230" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="K230">
-        <v>541648</v>
+        <v>541630</v>
       </c>
       <c r="L230">
-        <v>47</v>
+        <v>1114</v>
       </c>
       <c r="M230">
-        <v>47</v>
+        <v>1114</v>
       </c>
       <c r="N230" t="s">
         <v>31</v>
@@ -20954,28 +20945,28 @@
         <v>0</v>
       </c>
       <c r="Z230" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AA230" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77_6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B231">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C231" s="4">
         <v>1114</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>28</v>
@@ -20985,13 +20976,13 @@
         <v>54</v>
       </c>
       <c r="I231" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J231" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="K231">
-        <v>541630</v>
+        <v>553972</v>
       </c>
       <c r="L231">
         <v>1114</v>
@@ -21037,46 +21028,46 @@
       </c>
       <c r="AA231" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
+        <v>80_1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>80</v>
       </c>
       <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" s="4">
         <v>1</v>
       </c>
-      <c r="C232" s="4">
-        <v>1114</v>
-      </c>
       <c r="D232" s="4" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>773</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>28</v>
+        <v>774</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I232" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="J232" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="K232">
-        <v>553972</v>
+        <v>592731</v>
       </c>
       <c r="L232">
-        <v>1114</v>
+        <v>1</v>
       </c>
       <c r="M232">
-        <v>1114</v>
+        <v>1</v>
       </c>
       <c r="N232" t="s">
         <v>31</v>
@@ -21112,50 +21103,48 @@
         <v>0</v>
       </c>
       <c r="Z232" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="AA232" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80_1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
+        <v>80_2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>80</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C233" s="4">
-        <v>1</v>
+        <v>716</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>776</v>
+        <v>303</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>778</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I233" t="s">
-        <v>779</v>
+        <v>378</v>
       </c>
       <c r="J233" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K233">
-        <v>592731</v>
+        <v>592498</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M233">
-        <v>1</v>
+        <v>716</v>
       </c>
       <c r="N233" t="s">
         <v>31</v>
@@ -21191,48 +21180,50 @@
         <v>0</v>
       </c>
       <c r="Z233" t="s">
-        <v>256</v>
+        <v>448</v>
       </c>
       <c r="AA233" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80_2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
+        <v>80_3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>80</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C234" s="4">
-        <v>716</v>
+        <v>1176</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>303</v>
+        <v>778</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F234" s="4"/>
+        <v>779</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G234" s="4"/>
       <c r="H234">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I234" t="s">
-        <v>378</v>
+        <v>780</v>
       </c>
       <c r="J234" t="s">
-        <v>781</v>
+        <v>648</v>
       </c>
       <c r="K234">
-        <v>592498</v>
+        <v>556980</v>
       </c>
       <c r="L234">
-        <v>99</v>
+        <v>1176</v>
       </c>
       <c r="M234">
-        <v>716</v>
+        <v>1176</v>
       </c>
       <c r="N234" t="s">
         <v>31</v>
@@ -21268,50 +21259,50 @@
         <v>0</v>
       </c>
       <c r="Z234" t="s">
-        <v>448</v>
+        <v>235</v>
       </c>
       <c r="AA234" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80_3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
+        <v>80_4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>80</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C235" s="4">
-        <v>1176</v>
+        <v>47</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>782</v>
+        <v>219</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I235" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J235" t="s">
-        <v>648</v>
+        <v>783</v>
       </c>
       <c r="K235">
-        <v>556980</v>
+        <v>585459</v>
       </c>
       <c r="L235">
-        <v>1176</v>
+        <v>47</v>
       </c>
       <c r="M235">
-        <v>1176</v>
+        <v>47</v>
       </c>
       <c r="N235" t="s">
         <v>31</v>
@@ -21347,35 +21338,34 @@
         <v>0</v>
       </c>
       <c r="Z235" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA235" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>80_4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="AA235" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>80</v>
       </c>
       <c r="B236">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" s="4">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>219</v>
+        <v>784</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>785</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I236" t="s">
         <v>786</v>
@@ -21384,13 +21374,13 @@
         <v>787</v>
       </c>
       <c r="K236">
-        <v>585459</v>
+        <v>585114</v>
       </c>
       <c r="L236">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="M236">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="N236" t="s">
         <v>31</v>
@@ -21426,34 +21416,37 @@
         <v>0</v>
       </c>
       <c r="Z236" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA236" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="AA236" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>80_6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>80</v>
       </c>
       <c r="B237">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" s="4">
-        <v>7</v>
+        <v>724</v>
       </c>
       <c r="D237" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E237" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="E237" s="4" t="s">
+      <c r="F237" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="F237" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G237" s="4"/>
+      <c r="G237" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="H237">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I237" t="s">
         <v>790</v>
@@ -21462,13 +21455,13 @@
         <v>791</v>
       </c>
       <c r="K237">
-        <v>585114</v>
+        <v>592200</v>
       </c>
       <c r="L237">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="M237">
-        <v>7</v>
+        <v>724</v>
       </c>
       <c r="N237" t="s">
         <v>31</v>
@@ -21504,90 +21497,9 @@
         <v>0</v>
       </c>
       <c r="Z237" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="AA237" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>80_6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>80</v>
-      </c>
-      <c r="B238">
-        <v>7</v>
-      </c>
-      <c r="C238" s="4">
-        <v>724</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H238">
-        <v>64</v>
-      </c>
-      <c r="I238" t="s">
-        <v>794</v>
-      </c>
-      <c r="J238" t="s">
-        <v>795</v>
-      </c>
-      <c r="K238">
-        <v>592200</v>
-      </c>
-      <c r="L238">
-        <v>99</v>
-      </c>
-      <c r="M238">
-        <v>724</v>
-      </c>
-      <c r="N238" t="s">
-        <v>31</v>
-      </c>
-      <c r="O238">
-        <v>0</v>
-      </c>
-      <c r="P238">
-        <v>0</v>
-      </c>
-      <c r="Q238">
-        <v>0</v>
-      </c>
-      <c r="R238">
-        <v>0</v>
-      </c>
-      <c r="S238">
-        <v>0</v>
-      </c>
-      <c r="T238">
-        <v>0</v>
-      </c>
-      <c r="U238">
-        <v>0</v>
-      </c>
-      <c r="V238">
-        <v>0</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Z238" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA238" s="3" t="str">
         <f t="shared" si="3"/>
         <v>80_7</v>
       </c>

--- a/tools/vizitky.xlsx
+++ b/tools/vizitky.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVEL\senat-vizitky-18\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83092A5A-B72F-4A62-BF72-31D923F03592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="805">
   <si>
     <t>OBVOD</t>
   </si>
@@ -997,9 +996,6 @@
     <t>Kerekeš</t>
   </si>
   <si>
-    <t>lékař - kardiochirurg</t>
-  </si>
-  <si>
     <t>Vladimír</t>
   </si>
   <si>
@@ -2018,6 +2014,18 @@
   </si>
   <si>
     <t>Koalice KDU-ČSL a NV</t>
+  </si>
+  <si>
+    <t>Gawlas</t>
+  </si>
+  <si>
+    <t>zeměměřič</t>
+  </si>
+  <si>
+    <t>Česká Ves</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>Adámek</t>
@@ -2431,7 +2439,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2560,8 +2568,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Výpočet" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2872,44 +2880,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198:XFD198"/>
+    <sheetView tabSelected="1" topLeftCell="C58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" customWidth="1"/>
-    <col min="26" max="26" width="51.5546875" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="3"/>
-    <col min="28" max="28" width="9.109375" style="3"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="26" width="51.5703125" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="3"/>
+    <col min="28" max="28" width="9.140625" style="3"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2989,16 +2997,16 @@
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>2_1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3154,7 +3162,7 @@
         <v>2_2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3231,7 +3239,7 @@
         <v>2_3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>2_4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3387,7 +3395,7 @@
         <v>2_5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3464,7 +3472,7 @@
         <v>2_6</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3541,7 +3549,7 @@
         <v>2_7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>2_8</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3697,7 +3705,7 @@
         <v>2_9</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3776,7 +3784,7 @@
         <v>5_1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3853,7 +3861,7 @@
         <v>5_2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>5_3</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -4013,7 +4021,7 @@
         <v>5_4</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4092,7 +4100,7 @@
         <v>5_5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4171,7 +4179,7 @@
         <v>5_6</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4249,7 +4257,7 @@
         <v>5_7</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -4327,7 +4335,7 @@
         <v>5_8</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -4405,7 +4413,7 @@
         <v>5_9</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4481,7 +4489,7 @@
         <v>8_1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4559,7 +4567,7 @@
         <v>8_2</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -4640,7 +4648,7 @@
         <v>8_3</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -4717,7 +4725,7 @@
         <v>8_4</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>8_5</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -4877,7 +4885,7 @@
         <v>8_6</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -4958,7 +4966,7 @@
         <v>8_7</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -5031,16 +5039,16 @@
         <v>144</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -5119,7 +5127,7 @@
         <v>11_1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -5194,16 +5202,16 @@
         <v>134</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -5280,7 +5288,7 @@
         <v>11_3</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -5359,7 +5367,7 @@
         <v>11_4</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -5438,7 +5446,7 @@
         <v>11_5</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -5517,7 +5525,7 @@
         <v>11_6</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -5596,7 +5604,7 @@
         <v>11_7</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>11_8</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -5754,7 +5762,7 @@
         <v>14_1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -5833,7 +5841,7 @@
         <v>14_2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
@@ -5912,7 +5920,7 @@
         <v>14_3</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -5993,7 +6001,7 @@
         <v>14_4</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>14_5</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -6153,7 +6161,7 @@
         <v>14_6</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>14_7</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -6309,7 +6317,7 @@
         <v>14_8</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -6390,7 +6398,7 @@
         <v>17_1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17</v>
       </c>
@@ -6467,7 +6475,7 @@
         <v>17_2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>17</v>
       </c>
@@ -6548,7 +6556,7 @@
         <v>17_3</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17</v>
       </c>
@@ -6627,7 +6635,7 @@
         <v>17_4</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17</v>
       </c>
@@ -6704,7 +6712,7 @@
         <v>17_5</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17</v>
       </c>
@@ -6783,7 +6791,7 @@
         <v>17_6</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>17</v>
       </c>
@@ -6861,7 +6869,7 @@
         <v>17_7</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17</v>
       </c>
@@ -6939,7 +6947,7 @@
         <v>17_8</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20</v>
       </c>
@@ -7017,7 +7025,7 @@
         <v>20_1</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20</v>
       </c>
@@ -7098,7 +7106,7 @@
         <v>20_2</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20</v>
       </c>
@@ -7173,7 +7181,7 @@
         <v>20_3</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -7254,7 +7262,7 @@
         <v>20_4</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -7335,7 +7343,7 @@
         <v>20_5</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20</v>
       </c>
@@ -7410,7 +7418,7 @@
         <v>20_6</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20</v>
       </c>
@@ -7488,7 +7496,7 @@
         <v>20_7</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20</v>
       </c>
@@ -7567,7 +7575,7 @@
       </c>
       <c r="AC59" s="9"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>23</v>
       </c>
@@ -7641,10 +7649,10 @@
         <v>256</v>
       </c>
       <c r="AA60" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>23</v>
       </c>
@@ -7722,13 +7730,13 @@
         <v>23_2</v>
       </c>
       <c r="AB61" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="AC61" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="AC61" s="5" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>23</v>
       </c>
@@ -7803,7 +7811,7 @@
         <v>23_3</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>23</v>
       </c>
@@ -7878,7 +7886,7 @@
         <v>23_4</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>23</v>
       </c>
@@ -7953,7 +7961,7 @@
         <v>23_5</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>23</v>
       </c>
@@ -8031,7 +8039,7 @@
         <v>23_6</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>23</v>
       </c>
@@ -8112,7 +8120,7 @@
         <v>23_7</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>23</v>
       </c>
@@ -8193,7 +8201,7 @@
         <v>23_8</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>23</v>
       </c>
@@ -8268,7 +8276,7 @@
         <v>23_9</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>23</v>
       </c>
@@ -8346,7 +8354,7 @@
         <v>23_10</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>23</v>
       </c>
@@ -8424,7 +8432,7 @@
         <v>23_11</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>23</v>
       </c>
@@ -8502,7 +8510,7 @@
         <v>23_12</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>23</v>
       </c>
@@ -8580,7 +8588,7 @@
         <v>23_13</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>23</v>
       </c>
@@ -8661,7 +8669,7 @@
         <v>23_14</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>23</v>
       </c>
@@ -8736,7 +8744,7 @@
         <v>23_15</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>23</v>
       </c>
@@ -8814,7 +8822,7 @@
         <v>23_16</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>26</v>
       </c>
@@ -8895,7 +8903,7 @@
         <v>26_1</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>26</v>
       </c>
@@ -8976,7 +8984,7 @@
         <v>26_2</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>26</v>
       </c>
@@ -9051,7 +9059,7 @@
         <v>26_3</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>26</v>
       </c>
@@ -9126,7 +9134,7 @@
         <v>26_4</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>26</v>
       </c>
@@ -9201,7 +9209,7 @@
         <v>26_5</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>26</v>
       </c>
@@ -9224,7 +9232,7 @@
         <v>49</v>
       </c>
       <c r="I81" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="J81" t="s">
         <v>319</v>
@@ -9279,7 +9287,7 @@
         <v>26_6</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>26</v>
       </c>
@@ -9290,19 +9298,19 @@
         <v>53</v>
       </c>
       <c r="D82" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H82">
         <v>66</v>
       </c>
       <c r="I82" t="s">
+        <v>327</v>
+      </c>
+      <c r="J82" t="s">
         <v>328</v>
-      </c>
-      <c r="J82" t="s">
-        <v>329</v>
       </c>
       <c r="K82">
         <v>500089</v>
@@ -9354,7 +9362,7 @@
         <v>26_7</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>26</v>
       </c>
@@ -9365,10 +9373,10 @@
         <v>791</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="F83" t="s">
         <v>28</v>
@@ -9377,7 +9385,7 @@
         <v>55</v>
       </c>
       <c r="I83" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J83" t="s">
         <v>319</v>
@@ -9432,7 +9440,7 @@
         <v>26_8</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>26</v>
       </c>
@@ -9443,10 +9451,10 @@
         <v>47</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F84" t="s">
         <v>28</v>
@@ -9455,7 +9463,7 @@
         <v>68</v>
       </c>
       <c r="I84" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J84" t="s">
         <v>319</v>
@@ -9510,7 +9518,7 @@
         <v>26_9</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>29</v>
       </c>
@@ -9524,16 +9532,16 @@
         <v>33</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H85">
         <v>40</v>
       </c>
       <c r="I85" t="s">
+        <v>335</v>
+      </c>
+      <c r="J85" t="s">
         <v>336</v>
-      </c>
-      <c r="J85" t="s">
-        <v>337</v>
       </c>
       <c r="K85">
         <v>564591</v>
@@ -9578,14 +9586,14 @@
         <v>0</v>
       </c>
       <c r="Z85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA85" s="3" t="str">
         <f t="shared" si="1"/>
         <v>29_1</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>29</v>
       </c>
@@ -9599,7 +9607,7 @@
         <v>56</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F86" t="s">
         <v>28</v>
@@ -9608,10 +9616,10 @@
         <v>56</v>
       </c>
       <c r="I86" t="s">
+        <v>339</v>
+      </c>
+      <c r="J86" t="s">
         <v>340</v>
-      </c>
-      <c r="J86" t="s">
-        <v>341</v>
       </c>
       <c r="K86">
         <v>564877</v>
@@ -9663,7 +9671,7 @@
         <v>29_2</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>29</v>
       </c>
@@ -9677,7 +9685,7 @@
         <v>126</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F87" t="s">
         <v>70</v>
@@ -9689,7 +9697,7 @@
         <v>132</v>
       </c>
       <c r="J87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K87">
         <v>539244</v>
@@ -9741,7 +9749,7 @@
         <v>29_3</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>29</v>
       </c>
@@ -9755,7 +9763,7 @@
         <v>43</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F88" t="s">
         <v>70</v>
@@ -9764,10 +9772,10 @@
         <v>61</v>
       </c>
       <c r="I88" t="s">
+        <v>344</v>
+      </c>
+      <c r="J88" t="s">
         <v>345</v>
-      </c>
-      <c r="J88" t="s">
-        <v>346</v>
       </c>
       <c r="K88">
         <v>564567</v>
@@ -9819,7 +9827,7 @@
         <v>29_4</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>29</v>
       </c>
@@ -9833,7 +9841,7 @@
         <v>176</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F89" t="s">
         <v>90</v>
@@ -9842,10 +9850,10 @@
         <v>66</v>
       </c>
       <c r="I89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J89" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K89">
         <v>564567</v>
@@ -9897,7 +9905,7 @@
         <v>29_5</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>29</v>
       </c>
@@ -9911,16 +9919,16 @@
         <v>219</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H90">
         <v>68</v>
       </c>
       <c r="I90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J90" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K90">
         <v>564567</v>
@@ -9972,7 +9980,7 @@
         <v>29_6</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>29</v>
       </c>
@@ -9986,16 +9994,16 @@
         <v>303</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H91">
         <v>52</v>
       </c>
       <c r="I91" t="s">
+        <v>351</v>
+      </c>
+      <c r="J91" t="s">
         <v>352</v>
-      </c>
-      <c r="J91" t="s">
-        <v>353</v>
       </c>
       <c r="K91">
         <v>565814</v>
@@ -10047,7 +10055,7 @@
         <v>29_7</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>29</v>
       </c>
@@ -10061,7 +10069,7 @@
         <v>56</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F92" t="s">
         <v>90</v>
@@ -10070,10 +10078,10 @@
         <v>54</v>
       </c>
       <c r="I92" t="s">
+        <v>354</v>
+      </c>
+      <c r="J92" t="s">
         <v>355</v>
-      </c>
-      <c r="J92" t="s">
-        <v>356</v>
       </c>
       <c r="K92">
         <v>532819</v>
@@ -10118,14 +10126,14 @@
         <v>0</v>
       </c>
       <c r="Z92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA92" s="3" t="str">
         <f t="shared" si="1"/>
         <v>29_8</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>29</v>
       </c>
@@ -10136,10 +10144,10 @@
         <v>768</v>
       </c>
       <c r="D93" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="F93" t="s">
         <v>70</v>
@@ -10148,10 +10156,10 @@
         <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J93" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K93">
         <v>564567</v>
@@ -10203,7 +10211,7 @@
         <v>29_9</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>32</v>
       </c>
@@ -10214,10 +10222,10 @@
         <v>47</v>
       </c>
       <c r="D94" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="H94">
         <v>45</v>
@@ -10226,7 +10234,7 @@
         <v>269</v>
       </c>
       <c r="J94" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K94">
         <v>567507</v>
@@ -10278,7 +10286,7 @@
         <v>32_1</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>32</v>
       </c>
@@ -10289,10 +10297,10 @@
         <v>724</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="F95" t="s">
         <v>184</v>
@@ -10349,19 +10357,19 @@
         <v>0</v>
       </c>
       <c r="Z95" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AA95" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB95" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="AC95" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="AB95" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="AC95" s="6" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>32</v>
       </c>
@@ -10375,16 +10383,16 @@
         <v>200</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H96">
         <v>63</v>
       </c>
       <c r="I96" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K96">
         <v>567477</v>
@@ -10436,7 +10444,7 @@
         <v>32_3</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>32</v>
       </c>
@@ -10450,7 +10458,7 @@
         <v>56</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H97">
         <v>67</v>
@@ -10459,7 +10467,7 @@
         <v>173</v>
       </c>
       <c r="J97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K97">
         <v>567507</v>
@@ -10504,14 +10512,14 @@
         <v>0</v>
       </c>
       <c r="Z97" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AA97" s="3" t="str">
         <f t="shared" si="1"/>
         <v>32_4</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>32</v>
       </c>
@@ -10525,16 +10533,16 @@
         <v>88</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H98">
         <v>71</v>
       </c>
       <c r="I98" t="s">
+        <v>371</v>
+      </c>
+      <c r="J98" t="s">
         <v>372</v>
-      </c>
-      <c r="J98" t="s">
-        <v>373</v>
       </c>
       <c r="K98">
         <v>567442</v>
@@ -10586,7 +10594,7 @@
         <v>32_5</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>32</v>
       </c>
@@ -10600,7 +10608,7 @@
         <v>33</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F99" t="s">
         <v>61</v>
@@ -10609,10 +10617,10 @@
         <v>42</v>
       </c>
       <c r="I99" t="s">
+        <v>374</v>
+      </c>
+      <c r="J99" t="s">
         <v>375</v>
-      </c>
-      <c r="J99" t="s">
-        <v>376</v>
       </c>
       <c r="K99">
         <v>567515</v>
@@ -10664,7 +10672,7 @@
         <v>32_6</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>32</v>
       </c>
@@ -10678,7 +10686,7 @@
         <v>112</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F100" t="s">
         <v>28</v>
@@ -10687,10 +10695,10 @@
         <v>68</v>
       </c>
       <c r="I100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J100" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K100">
         <v>567442</v>
@@ -10742,7 +10750,7 @@
         <v>32_7</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>32</v>
       </c>
@@ -10756,19 +10764,19 @@
         <v>108</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F101" t="s">
         <v>379</v>
-      </c>
-      <c r="F101" t="s">
-        <v>380</v>
       </c>
       <c r="H101">
         <v>59</v>
       </c>
       <c r="I101" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K101">
         <v>567442</v>
@@ -10820,7 +10828,7 @@
         <v>32_8</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>32</v>
       </c>
@@ -10831,25 +10839,25 @@
         <v>137</v>
       </c>
       <c r="D102" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="F102" t="s">
         <v>383</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>384</v>
-      </c>
-      <c r="G102" t="s">
-        <v>385</v>
       </c>
       <c r="H102">
         <v>57</v>
       </c>
       <c r="I102" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J102" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K102">
         <v>567442</v>
@@ -10897,10 +10905,10 @@
         <v>292</v>
       </c>
       <c r="AA102" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>35</v>
       </c>
@@ -10911,10 +10919,10 @@
         <v>47</v>
       </c>
       <c r="D103" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="F103" t="s">
         <v>90</v>
@@ -10923,10 +10931,10 @@
         <v>44</v>
       </c>
       <c r="I103" t="s">
+        <v>388</v>
+      </c>
+      <c r="J103" t="s">
         <v>389</v>
-      </c>
-      <c r="J103" t="s">
-        <v>390</v>
       </c>
       <c r="K103">
         <v>562017</v>
@@ -10978,7 +10986,7 @@
         <v>35_1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>35</v>
       </c>
@@ -10989,25 +10997,25 @@
         <v>1187</v>
       </c>
       <c r="D104" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="F104" t="s">
         <v>90</v>
       </c>
       <c r="G104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H104">
         <v>41</v>
       </c>
       <c r="I104" t="s">
+        <v>393</v>
+      </c>
+      <c r="J104" t="s">
         <v>394</v>
-      </c>
-      <c r="J104" t="s">
-        <v>395</v>
       </c>
       <c r="K104">
         <v>563510</v>
@@ -11059,7 +11067,7 @@
         <v>35_2</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>35</v>
       </c>
@@ -11073,16 +11081,16 @@
         <v>88</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H105">
         <v>59</v>
       </c>
       <c r="I105" t="s">
+        <v>396</v>
+      </c>
+      <c r="J105" t="s">
         <v>397</v>
-      </c>
-      <c r="J105" t="s">
-        <v>398</v>
       </c>
       <c r="K105">
         <v>563528</v>
@@ -11134,7 +11142,7 @@
         <v>35_3</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>35</v>
       </c>
@@ -11148,7 +11156,7 @@
         <v>140</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F106" t="s">
         <v>90</v>
@@ -11157,10 +11165,10 @@
         <v>45</v>
       </c>
       <c r="I106" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J106" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K106">
         <v>563510</v>
@@ -11212,7 +11220,7 @@
         <v>35_4</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>35</v>
       </c>
@@ -11226,7 +11234,7 @@
         <v>112</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F107" t="s">
         <v>90</v>
@@ -11235,10 +11243,10 @@
         <v>52</v>
       </c>
       <c r="I107" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J107" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K107">
         <v>563510</v>
@@ -11283,14 +11291,14 @@
         <v>0</v>
       </c>
       <c r="Z107" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA107" s="3" t="str">
         <f t="shared" si="1"/>
         <v>35_5</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>35</v>
       </c>
@@ -11304,16 +11312,16 @@
         <v>56</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H108">
         <v>49</v>
       </c>
       <c r="I108" t="s">
+        <v>404</v>
+      </c>
+      <c r="J108" t="s">
         <v>405</v>
-      </c>
-      <c r="J108" t="s">
-        <v>406</v>
       </c>
       <c r="K108">
         <v>577294</v>
@@ -11365,7 +11373,7 @@
         <v>35_6</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>35</v>
       </c>
@@ -11376,19 +11384,19 @@
         <v>7</v>
       </c>
       <c r="D109" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="H109">
         <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J109" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K109">
         <v>563510</v>
@@ -11440,7 +11448,7 @@
         <v>35_7</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>38</v>
       </c>
@@ -11451,10 +11459,10 @@
         <v>720</v>
       </c>
       <c r="D110" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="H110">
         <v>57</v>
@@ -11463,7 +11471,7 @@
         <v>58</v>
       </c>
       <c r="J110" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K110">
         <v>577626</v>
@@ -11515,7 +11523,7 @@
         <v>38_1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>38</v>
       </c>
@@ -11526,10 +11534,10 @@
         <v>53</v>
       </c>
       <c r="D111" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="F111" t="s">
         <v>70</v>
@@ -11538,10 +11546,10 @@
         <v>52</v>
       </c>
       <c r="I111" t="s">
+        <v>414</v>
+      </c>
+      <c r="J111" t="s">
         <v>415</v>
-      </c>
-      <c r="J111" t="s">
-        <v>416</v>
       </c>
       <c r="K111">
         <v>535419</v>
@@ -11593,7 +11601,7 @@
         <v>38_2</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>38</v>
       </c>
@@ -11607,16 +11615,16 @@
         <v>56</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H112">
         <v>69</v>
       </c>
       <c r="I112" t="s">
+        <v>417</v>
+      </c>
+      <c r="J112" t="s">
         <v>418</v>
-      </c>
-      <c r="J112" t="s">
-        <v>419</v>
       </c>
       <c r="K112">
         <v>533955</v>
@@ -11668,7 +11676,7 @@
         <v>38_3</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>38</v>
       </c>
@@ -11682,10 +11690,10 @@
         <v>176</v>
       </c>
       <c r="E113" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="G113" t="s">
         <v>229</v>
@@ -11697,7 +11705,7 @@
         <v>132</v>
       </c>
       <c r="J113" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K113">
         <v>570826</v>
@@ -11749,7 +11757,7 @@
         <v>38_4</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>38</v>
       </c>
@@ -11763,7 +11771,7 @@
         <v>64</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F114" s="4"/>
       <c r="H114">
@@ -11773,7 +11781,7 @@
         <v>173</v>
       </c>
       <c r="J114" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K114">
         <v>535419</v>
@@ -11825,7 +11833,7 @@
         <v>38_5</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>38</v>
       </c>
@@ -11839,7 +11847,7 @@
         <v>56</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>165</v>
@@ -11851,7 +11859,7 @@
         <v>173</v>
       </c>
       <c r="J115" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K115">
         <v>536024</v>
@@ -11903,7 +11911,7 @@
         <v>38_6</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>38</v>
       </c>
@@ -11917,17 +11925,17 @@
         <v>43</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F116" s="4"/>
       <c r="H116">
         <v>65</v>
       </c>
       <c r="I116" t="s">
+        <v>426</v>
+      </c>
+      <c r="J116" t="s">
         <v>427</v>
-      </c>
-      <c r="J116" t="s">
-        <v>428</v>
       </c>
       <c r="K116">
         <v>565539</v>
@@ -11979,7 +11987,7 @@
         <v>38_7</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>41</v>
       </c>
@@ -11993,7 +12001,7 @@
         <v>135</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>28</v>
@@ -12002,10 +12010,10 @@
         <v>50</v>
       </c>
       <c r="I117" t="s">
+        <v>429</v>
+      </c>
+      <c r="J117" t="s">
         <v>430</v>
-      </c>
-      <c r="J117" t="s">
-        <v>431</v>
       </c>
       <c r="K117">
         <v>538710</v>
@@ -12057,7 +12065,7 @@
         <v>41_1</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>41</v>
       </c>
@@ -12071,7 +12079,7 @@
         <v>64</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>28</v>
@@ -12080,10 +12088,10 @@
         <v>64</v>
       </c>
       <c r="I118" t="s">
+        <v>432</v>
+      </c>
+      <c r="J118" t="s">
         <v>433</v>
-      </c>
-      <c r="J118" t="s">
-        <v>434</v>
       </c>
       <c r="K118">
         <v>529303</v>
@@ -12135,7 +12143,7 @@
         <v>41_2</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>41</v>
       </c>
@@ -12146,10 +12154,10 @@
         <v>721</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>90</v>
@@ -12158,7 +12166,7 @@
         <v>49</v>
       </c>
       <c r="I119" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J119" t="s">
         <v>313</v>
@@ -12213,7 +12221,7 @@
         <v>41_3</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>41</v>
       </c>
@@ -12227,7 +12235,7 @@
         <v>64</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>90</v>
@@ -12236,10 +12244,10 @@
         <v>41</v>
       </c>
       <c r="I120" t="s">
+        <v>437</v>
+      </c>
+      <c r="J120" t="s">
         <v>438</v>
-      </c>
-      <c r="J120" t="s">
-        <v>439</v>
       </c>
       <c r="K120">
         <v>538728</v>
@@ -12291,7 +12299,7 @@
         <v>41_4</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>41</v>
       </c>
@@ -12305,7 +12313,7 @@
         <v>33</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>28</v>
@@ -12314,10 +12322,10 @@
         <v>43</v>
       </c>
       <c r="I121" t="s">
+        <v>440</v>
+      </c>
+      <c r="J121" t="s">
         <v>441</v>
-      </c>
-      <c r="J121" t="s">
-        <v>442</v>
       </c>
       <c r="K121">
         <v>538582</v>
@@ -12369,7 +12377,7 @@
         <v>41_5</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>41</v>
       </c>
@@ -12383,17 +12391,17 @@
         <v>43</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F122" s="4"/>
       <c r="H122">
         <v>60</v>
       </c>
       <c r="I122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J122" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K122">
         <v>529303</v>
@@ -12441,11 +12449,11 @@
         <v>51</v>
       </c>
       <c r="AA122" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AC122" s="6"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>41</v>
       </c>
@@ -12459,7 +12467,7 @@
         <v>200</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>90</v>
@@ -12468,10 +12476,10 @@
         <v>61</v>
       </c>
       <c r="I123" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J123" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K123">
         <v>529303</v>
@@ -12523,7 +12531,7 @@
         <v>41_7</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>41</v>
       </c>
@@ -12537,7 +12545,7 @@
         <v>205</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>90</v>
@@ -12594,14 +12602,14 @@
         <v>0</v>
       </c>
       <c r="Z124" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AA124" s="3" t="str">
         <f t="shared" si="1"/>
         <v>41_8</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>41</v>
       </c>
@@ -12615,10 +12623,10 @@
         <v>108</v>
       </c>
       <c r="E125" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="G125" t="s">
         <v>131</v>
@@ -12627,10 +12635,10 @@
         <v>43</v>
       </c>
       <c r="I125" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K125">
         <v>538728</v>
@@ -12682,7 +12690,7 @@
         <v>41_9</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>41</v>
       </c>
@@ -12696,10 +12704,10 @@
         <v>47</v>
       </c>
       <c r="E126" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>131</v>
@@ -12711,7 +12719,7 @@
         <v>156</v>
       </c>
       <c r="J126" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K126">
         <v>538957</v>
@@ -12763,7 +12771,7 @@
         <v>41_10</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>41</v>
       </c>
@@ -12777,7 +12785,7 @@
         <v>47</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>90</v>
@@ -12787,10 +12795,10 @@
         <v>45</v>
       </c>
       <c r="I127" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J127" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K127">
         <v>529303</v>
@@ -12842,7 +12850,7 @@
         <v>41_11</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>44</v>
       </c>
@@ -12856,7 +12864,7 @@
         <v>82</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>28</v>
@@ -12866,7 +12874,7 @@
         <v>56</v>
       </c>
       <c r="I128" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J128" t="s">
         <v>75</v>
@@ -12921,7 +12929,7 @@
         <v>44_1</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>44</v>
       </c>
@@ -12935,7 +12943,7 @@
         <v>43</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -12943,10 +12951,10 @@
         <v>43</v>
       </c>
       <c r="I129" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J129" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K129">
         <v>571393</v>
@@ -12998,7 +13006,7 @@
         <v>44_2</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>44</v>
       </c>
@@ -13012,7 +13020,7 @@
         <v>112</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>70</v>
@@ -13022,10 +13030,10 @@
         <v>48</v>
       </c>
       <c r="I130" t="s">
+        <v>461</v>
+      </c>
+      <c r="J130" t="s">
         <v>462</v>
-      </c>
-      <c r="J130" t="s">
-        <v>463</v>
       </c>
       <c r="K130">
         <v>575437</v>
@@ -13077,7 +13085,7 @@
         <v>44_3</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>44</v>
       </c>
@@ -13088,10 +13096,10 @@
         <v>80</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -13099,10 +13107,10 @@
         <v>45</v>
       </c>
       <c r="I131" t="s">
+        <v>464</v>
+      </c>
+      <c r="J131" t="s">
         <v>465</v>
-      </c>
-      <c r="J131" t="s">
-        <v>466</v>
       </c>
       <c r="K131">
         <v>572551</v>
@@ -13154,7 +13162,7 @@
         <v>44_4</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>44</v>
       </c>
@@ -13168,7 +13176,7 @@
         <v>47</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -13176,10 +13184,10 @@
         <v>70</v>
       </c>
       <c r="I132" t="s">
+        <v>467</v>
+      </c>
+      <c r="J132" t="s">
         <v>468</v>
-      </c>
-      <c r="J132" t="s">
-        <v>469</v>
       </c>
       <c r="K132">
         <v>596868</v>
@@ -13231,7 +13239,7 @@
         <v>44_5</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>44</v>
       </c>
@@ -13242,10 +13250,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E133" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>90</v>
@@ -13255,7 +13263,7 @@
         <v>55</v>
       </c>
       <c r="I133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J133" t="s">
         <v>75</v>
@@ -13310,7 +13318,7 @@
         <v>44_6</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>44</v>
       </c>
@@ -13321,13 +13329,13 @@
         <v>1193</v>
       </c>
       <c r="D134" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="F134" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>120</v>
@@ -13336,10 +13344,10 @@
         <v>61</v>
       </c>
       <c r="I134" t="s">
+        <v>475</v>
+      </c>
+      <c r="J134" t="s">
         <v>476</v>
-      </c>
-      <c r="J134" t="s">
-        <v>477</v>
       </c>
       <c r="K134">
         <v>571482</v>
@@ -13384,14 +13392,14 @@
         <v>0</v>
       </c>
       <c r="Z134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA134" s="3" t="str">
         <f t="shared" si="2"/>
         <v>44_7</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>44</v>
       </c>
@@ -13405,20 +13413,20 @@
         <v>64</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135">
         <v>57</v>
       </c>
       <c r="I135" t="s">
+        <v>479</v>
+      </c>
+      <c r="J135" t="s">
         <v>480</v>
-      </c>
-      <c r="J135" t="s">
-        <v>481</v>
       </c>
       <c r="K135">
         <v>539325</v>
@@ -13470,7 +13478,7 @@
         <v>44_8</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>44</v>
       </c>
@@ -13484,20 +13492,20 @@
         <v>88</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H136">
         <v>49</v>
       </c>
       <c r="I136" t="s">
+        <v>483</v>
+      </c>
+      <c r="J136" t="s">
         <v>484</v>
-      </c>
-      <c r="J136" t="s">
-        <v>485</v>
       </c>
       <c r="K136">
         <v>572411</v>
@@ -13549,7 +13557,7 @@
         <v>44_9</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>44</v>
       </c>
@@ -13560,10 +13568,10 @@
         <v>1114</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>28</v>
@@ -13573,10 +13581,10 @@
         <v>63</v>
       </c>
       <c r="I137" t="s">
+        <v>486</v>
+      </c>
+      <c r="J137" t="s">
         <v>487</v>
-      </c>
-      <c r="J137" t="s">
-        <v>488</v>
       </c>
       <c r="K137">
         <v>590266</v>
@@ -13628,7 +13636,7 @@
         <v>44_10</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>44</v>
       </c>
@@ -13642,7 +13650,7 @@
         <v>123</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>28</v>
@@ -13652,10 +13660,10 @@
         <v>41</v>
       </c>
       <c r="I138" t="s">
+        <v>489</v>
+      </c>
+      <c r="J138" t="s">
         <v>490</v>
-      </c>
-      <c r="J138" t="s">
-        <v>491</v>
       </c>
       <c r="K138">
         <v>569321</v>
@@ -13707,7 +13715,7 @@
         <v>44_11</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>44</v>
       </c>
@@ -13718,10 +13726,10 @@
         <v>589</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
@@ -13729,7 +13737,7 @@
         <v>68</v>
       </c>
       <c r="I139" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J139" t="s">
         <v>289</v>
@@ -13777,14 +13785,14 @@
         <v>0</v>
       </c>
       <c r="Z139" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA139" s="3" t="str">
         <f t="shared" si="2"/>
         <v>44_12</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>44</v>
       </c>
@@ -13798,7 +13806,7 @@
         <v>33</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>90</v>
@@ -13810,10 +13818,10 @@
         <v>55</v>
       </c>
       <c r="I140" t="s">
+        <v>495</v>
+      </c>
+      <c r="J140" t="s">
         <v>496</v>
-      </c>
-      <c r="J140" t="s">
-        <v>497</v>
       </c>
       <c r="K140">
         <v>568414</v>
@@ -13858,14 +13866,14 @@
         <v>0</v>
       </c>
       <c r="Z140" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AA140" s="3" t="str">
         <f t="shared" si="2"/>
         <v>44_13</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>44</v>
       </c>
@@ -13876,13 +13884,13 @@
         <v>55</v>
       </c>
       <c r="D141" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="F141" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>501</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141">
@@ -13892,7 +13900,7 @@
         <v>186</v>
       </c>
       <c r="J141" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K141">
         <v>581186</v>
@@ -13944,7 +13952,7 @@
         <v>44_14</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>47</v>
       </c>
@@ -13955,10 +13963,10 @@
         <v>47</v>
       </c>
       <c r="D142" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E142" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>90</v>
@@ -13968,10 +13976,10 @@
         <v>55</v>
       </c>
       <c r="I142" t="s">
+        <v>504</v>
+      </c>
+      <c r="J142" t="s">
         <v>505</v>
-      </c>
-      <c r="J142" t="s">
-        <v>506</v>
       </c>
       <c r="K142">
         <v>573868</v>
@@ -14023,7 +14031,7 @@
         <v>47_1</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>47</v>
       </c>
@@ -14037,22 +14045,22 @@
         <v>112</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H143">
         <v>41</v>
       </c>
       <c r="I143" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J143" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K143">
         <v>573868</v>
@@ -14104,7 +14112,7 @@
         <v>47_2</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>47</v>
       </c>
@@ -14115,10 +14123,10 @@
         <v>1114</v>
       </c>
       <c r="D144" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E144" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -14126,10 +14134,10 @@
         <v>52</v>
       </c>
       <c r="I144" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="J144" t="s">
         <v>512</v>
-      </c>
-      <c r="J144" t="s">
-        <v>513</v>
       </c>
       <c r="K144">
         <v>569810</v>
@@ -14181,7 +14189,7 @@
         <v>47_3</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>47</v>
       </c>
@@ -14195,7 +14203,7 @@
         <v>47</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -14203,10 +14211,10 @@
         <v>50</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J145" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K145">
         <v>574082</v>
@@ -14258,7 +14266,7 @@
         <v>47_4</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>47</v>
       </c>
@@ -14272,20 +14280,20 @@
         <v>135</v>
       </c>
       <c r="E146" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4">
         <v>46</v>
       </c>
       <c r="I146" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J146" t="s">
         <v>518</v>
-      </c>
-      <c r="J146" t="s">
-        <v>519</v>
       </c>
       <c r="K146">
         <v>574643</v>
@@ -14337,7 +14345,7 @@
         <v>47_5</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>47</v>
       </c>
@@ -14351,7 +14359,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -14359,10 +14367,10 @@
         <v>48</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J147" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K147">
         <v>573868</v>
@@ -14414,7 +14422,7 @@
         <v>47_6</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>50</v>
       </c>
@@ -14428,7 +14436,7 @@
         <v>88</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -14439,7 +14447,7 @@
         <v>234</v>
       </c>
       <c r="J148" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K148">
         <v>578550</v>
@@ -14484,14 +14492,14 @@
         <v>0</v>
       </c>
       <c r="Z148" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA148" s="3" t="str">
         <f t="shared" si="2"/>
         <v>50_1</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>50</v>
       </c>
@@ -14502,10 +14510,10 @@
         <v>340</v>
       </c>
       <c r="D149" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>28</v>
@@ -14515,7 +14523,7 @@
         <v>60</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J149" t="s">
         <v>75</v>
@@ -14563,14 +14571,14 @@
         <v>0</v>
       </c>
       <c r="Z149" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA149" s="3" t="str">
         <f t="shared" si="2"/>
         <v>50_2</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>50</v>
       </c>
@@ -14584,7 +14592,7 @@
         <v>64</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -14592,10 +14600,10 @@
         <v>63</v>
       </c>
       <c r="I150" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="J150" t="s">
         <v>529</v>
-      </c>
-      <c r="J150" t="s">
-        <v>530</v>
       </c>
       <c r="K150">
         <v>577731</v>
@@ -14647,7 +14655,7 @@
         <v>50_3</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>50</v>
       </c>
@@ -14661,7 +14669,7 @@
         <v>112</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>70</v>
@@ -14674,7 +14682,7 @@
         <v>132</v>
       </c>
       <c r="J151" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K151">
         <v>577731</v>
@@ -14726,7 +14734,7 @@
         <v>50_4</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -14740,7 +14748,7 @@
         <v>193</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>90</v>
@@ -14755,7 +14763,7 @@
         <v>173</v>
       </c>
       <c r="J152" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K152">
         <v>581186</v>
@@ -14807,7 +14815,7 @@
         <v>50_5</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>50</v>
       </c>
@@ -14821,7 +14829,7 @@
         <v>43</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>78</v>
@@ -14831,10 +14839,10 @@
         <v>56</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J153" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K153">
         <v>577731</v>
@@ -14887,7 +14895,7 @@
       </c>
       <c r="AC153" s="6"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>50</v>
       </c>
@@ -14901,7 +14909,7 @@
         <v>140</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -14909,10 +14917,10 @@
         <v>56</v>
       </c>
       <c r="I154" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="J154" t="s">
         <v>535</v>
-      </c>
-      <c r="J154" t="s">
-        <v>536</v>
       </c>
       <c r="K154">
         <v>578347</v>
@@ -14964,7 +14972,7 @@
         <v>50_7</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>50</v>
       </c>
@@ -14978,7 +14986,7 @@
         <v>158</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -14986,10 +14994,10 @@
         <v>62</v>
       </c>
       <c r="I155" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="J155" t="s">
         <v>538</v>
-      </c>
-      <c r="J155" t="s">
-        <v>539</v>
       </c>
       <c r="K155">
         <v>578509</v>
@@ -15041,7 +15049,7 @@
         <v>50_8</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>50</v>
       </c>
@@ -15055,7 +15063,7 @@
         <v>56</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>28</v>
@@ -15065,10 +15073,10 @@
         <v>70</v>
       </c>
       <c r="I156" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="J156" t="s">
         <v>541</v>
-      </c>
-      <c r="J156" t="s">
-        <v>542</v>
       </c>
       <c r="K156">
         <v>568678</v>
@@ -15120,7 +15128,7 @@
         <v>50_9</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>53</v>
       </c>
@@ -15134,7 +15142,7 @@
         <v>38</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>28</v>
@@ -15144,7 +15152,7 @@
         <v>54</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J157" t="s">
         <v>75</v>
@@ -15199,7 +15207,7 @@
         <v>53_1</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>53</v>
       </c>
@@ -15210,25 +15218,25 @@
         <v>137</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E158" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="G158" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="H158" s="4">
         <v>58</v>
       </c>
       <c r="I158" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="J158" t="s">
         <v>548</v>
-      </c>
-      <c r="J158" t="s">
-        <v>549</v>
       </c>
       <c r="K158">
         <v>582786</v>
@@ -15280,7 +15288,7 @@
         <v>53_2</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>53</v>
       </c>
@@ -15291,10 +15299,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -15302,10 +15310,10 @@
         <v>53</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J159" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K159">
         <v>590266</v>
@@ -15357,7 +15365,7 @@
         <v>53_3</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>53</v>
       </c>
@@ -15371,7 +15379,7 @@
         <v>259</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -15379,10 +15387,10 @@
         <v>49</v>
       </c>
       <c r="I160" t="s">
+        <v>553</v>
+      </c>
+      <c r="J160" t="s">
         <v>554</v>
-      </c>
-      <c r="J160" t="s">
-        <v>555</v>
       </c>
       <c r="K160">
         <v>590886</v>
@@ -15434,7 +15442,7 @@
         <v>53_4</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>53</v>
       </c>
@@ -15448,10 +15456,10 @@
         <v>140</v>
       </c>
       <c r="E161" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>131</v>
@@ -15460,10 +15468,10 @@
         <v>43</v>
       </c>
       <c r="I161" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J161" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K161">
         <v>590266</v>
@@ -15515,7 +15523,7 @@
         <v>53_5</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>53</v>
       </c>
@@ -15529,7 +15537,7 @@
         <v>196</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>90</v>
@@ -15539,10 +15547,10 @@
         <v>62</v>
       </c>
       <c r="I162" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J162" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K162">
         <v>590266</v>
@@ -15594,7 +15602,7 @@
         <v>53_6</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>53</v>
       </c>
@@ -15614,16 +15622,16 @@
         <v>162</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H163">
         <v>58</v>
       </c>
       <c r="I163" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J163" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K163">
         <v>590266</v>
@@ -15675,7 +15683,7 @@
         <v>53_7</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>53</v>
       </c>
@@ -15689,7 +15697,7 @@
         <v>309</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -15697,7 +15705,7 @@
         <v>42</v>
       </c>
       <c r="I164" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J164" t="s">
         <v>145</v>
@@ -15752,7 +15760,7 @@
         <v>53_8</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>53</v>
       </c>
@@ -15766,7 +15774,7 @@
         <v>47</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>162</v>
@@ -15776,10 +15784,10 @@
         <v>69</v>
       </c>
       <c r="I165" t="s">
+        <v>564</v>
+      </c>
+      <c r="J165" t="s">
         <v>565</v>
-      </c>
-      <c r="J165" t="s">
-        <v>566</v>
       </c>
       <c r="K165">
         <v>586846</v>
@@ -15831,7 +15839,7 @@
         <v>53_9</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>56</v>
       </c>
@@ -15845,7 +15853,7 @@
         <v>193</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>162</v>
@@ -15855,10 +15863,10 @@
         <v>56</v>
       </c>
       <c r="I166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J166" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K166">
         <v>585009</v>
@@ -15910,7 +15918,7 @@
         <v>56_1</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>56</v>
       </c>
@@ -15924,7 +15932,7 @@
         <v>88</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>28</v>
@@ -15934,10 +15942,10 @@
         <v>56</v>
       </c>
       <c r="I167" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J167" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K167">
         <v>584291</v>
@@ -15989,7 +15997,7 @@
         <v>56_2</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>56</v>
       </c>
@@ -16003,7 +16011,7 @@
         <v>243</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F168" t="s">
         <v>90</v>
@@ -16067,7 +16075,7 @@
         <v>56_3</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>56</v>
       </c>
@@ -16081,7 +16089,7 @@
         <v>193</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F169" t="s">
         <v>90</v>
@@ -16090,10 +16098,10 @@
         <v>50</v>
       </c>
       <c r="I169" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K169">
         <v>584291</v>
@@ -16145,7 +16153,7 @@
         <v>56_4</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>56</v>
       </c>
@@ -16159,7 +16167,7 @@
         <v>108</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>28</v>
@@ -16168,10 +16176,10 @@
         <v>52</v>
       </c>
       <c r="I170" t="s">
+        <v>573</v>
+      </c>
+      <c r="J170" t="s">
         <v>574</v>
-      </c>
-      <c r="J170" t="s">
-        <v>575</v>
       </c>
       <c r="K170">
         <v>584941</v>
@@ -16223,7 +16231,7 @@
         <v>56_5</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>56</v>
       </c>
@@ -16234,10 +16242,10 @@
         <v>53</v>
       </c>
       <c r="D171" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E171" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
@@ -16245,10 +16253,10 @@
         <v>57</v>
       </c>
       <c r="I171" t="s">
+        <v>577</v>
+      </c>
+      <c r="J171" t="s">
         <v>578</v>
-      </c>
-      <c r="J171" t="s">
-        <v>579</v>
       </c>
       <c r="K171">
         <v>584649</v>
@@ -16300,7 +16308,7 @@
         <v>56_6</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>56</v>
       </c>
@@ -16314,7 +16322,7 @@
         <v>303</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
@@ -16322,10 +16330,10 @@
         <v>47</v>
       </c>
       <c r="I172" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J172" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K172">
         <v>584291</v>
@@ -16377,7 +16385,7 @@
         <v>56_7</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>59</v>
       </c>
@@ -16391,10 +16399,10 @@
         <v>243</v>
       </c>
       <c r="E173" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>120</v>
@@ -16403,10 +16411,10 @@
         <v>67</v>
       </c>
       <c r="I173" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J173" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K173">
         <v>3</v>
@@ -16458,7 +16466,7 @@
         <v>59_1</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>59</v>
       </c>
@@ -16469,10 +16477,10 @@
         <v>768</v>
       </c>
       <c r="D174" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E174" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>90</v>
@@ -16482,10 +16490,10 @@
         <v>64</v>
       </c>
       <c r="I174" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J174" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K174">
         <v>3</v>
@@ -16537,7 +16545,7 @@
         <v>59_2</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>59</v>
       </c>
@@ -16548,10 +16556,10 @@
         <v>47</v>
       </c>
       <c r="D175" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E175" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>589</v>
       </c>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
@@ -16559,10 +16567,10 @@
         <v>55</v>
       </c>
       <c r="I175" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J175" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K175">
         <v>3</v>
@@ -16614,7 +16622,7 @@
         <v>59_3</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>59</v>
       </c>
@@ -16628,20 +16636,20 @@
         <v>112</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H176">
         <v>40</v>
       </c>
       <c r="I176" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J176" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K176">
         <v>3</v>
@@ -16686,14 +16694,14 @@
         <v>0</v>
       </c>
       <c r="Z176" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA176" s="3" t="str">
         <f t="shared" si="2"/>
         <v>59_4</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>59</v>
       </c>
@@ -16707,20 +16715,20 @@
         <v>38</v>
       </c>
       <c r="E177" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177">
         <v>48</v>
       </c>
       <c r="I177" t="s">
+        <v>596</v>
+      </c>
+      <c r="J177" t="s">
         <v>597</v>
-      </c>
-      <c r="J177" t="s">
-        <v>598</v>
       </c>
       <c r="K177">
         <v>553964</v>
@@ -16765,14 +16773,14 @@
         <v>0</v>
       </c>
       <c r="Z177" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AA177" s="3" t="str">
         <f t="shared" si="2"/>
         <v>59_5</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>59</v>
       </c>
@@ -16786,7 +16794,7 @@
         <v>47</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -16794,10 +16802,10 @@
         <v>45</v>
       </c>
       <c r="I178" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J178" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K178">
         <v>3</v>
@@ -16842,14 +16850,14 @@
         <v>0</v>
       </c>
       <c r="Z178" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AA178" s="3" t="str">
         <f t="shared" si="2"/>
         <v>59_6</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>59</v>
       </c>
@@ -16863,7 +16871,7 @@
         <v>33</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>90</v>
@@ -16873,10 +16881,10 @@
         <v>53</v>
       </c>
       <c r="I179" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J179" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K179">
         <v>3</v>
@@ -16928,7 +16936,7 @@
         <v>59_7</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>59</v>
       </c>
@@ -16939,23 +16947,23 @@
         <v>55</v>
       </c>
       <c r="D180" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E180" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="F180" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180">
         <v>45</v>
       </c>
       <c r="I180" t="s">
+        <v>607</v>
+      </c>
+      <c r="J180" t="s">
         <v>608</v>
-      </c>
-      <c r="J180" t="s">
-        <v>609</v>
       </c>
       <c r="K180">
         <v>999997</v>
@@ -17007,7 +17015,7 @@
         <v>59_8</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>59</v>
       </c>
@@ -17021,7 +17029,7 @@
         <v>123</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
@@ -17029,10 +17037,10 @@
         <v>54</v>
       </c>
       <c r="I181" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J181" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K181">
         <v>3</v>
@@ -17084,7 +17092,7 @@
         <v>59_9</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>59</v>
       </c>
@@ -17095,13 +17103,13 @@
         <v>1321</v>
       </c>
       <c r="D182" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E182" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="F182" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>614</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>131</v>
@@ -17110,10 +17118,10 @@
         <v>54</v>
       </c>
       <c r="I182" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J182" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K182">
         <v>3</v>
@@ -17158,14 +17166,14 @@
         <v>0</v>
       </c>
       <c r="Z182" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA182" s="3" t="str">
         <f t="shared" si="2"/>
         <v>59_10</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>59</v>
       </c>
@@ -17179,7 +17187,7 @@
         <v>112</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>61</v>
@@ -17189,10 +17197,10 @@
         <v>53</v>
       </c>
       <c r="I183" t="s">
+        <v>617</v>
+      </c>
+      <c r="J183" t="s">
         <v>618</v>
-      </c>
-      <c r="J183" t="s">
-        <v>619</v>
       </c>
       <c r="K183">
         <v>581291</v>
@@ -17244,7 +17252,7 @@
         <v>59_11</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>62</v>
       </c>
@@ -17255,10 +17263,10 @@
         <v>7</v>
       </c>
       <c r="D184" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>621</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
@@ -17269,7 +17277,7 @@
         <v>238</v>
       </c>
       <c r="J184" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K184">
         <v>589250</v>
@@ -17321,7 +17329,7 @@
         <v>62_1</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>62</v>
       </c>
@@ -17332,10 +17340,10 @@
         <v>80</v>
       </c>
       <c r="D185" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>70</v>
@@ -17345,10 +17353,10 @@
         <v>61</v>
       </c>
       <c r="I185" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J185" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K185">
         <v>589250</v>
@@ -17400,7 +17408,7 @@
         <v>62_2</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>62</v>
       </c>
@@ -17411,10 +17419,10 @@
         <v>768</v>
       </c>
       <c r="D186" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
@@ -17422,10 +17430,10 @@
         <v>49</v>
       </c>
       <c r="I186" t="s">
+        <v>627</v>
+      </c>
+      <c r="J186" t="s">
         <v>628</v>
-      </c>
-      <c r="J186" t="s">
-        <v>629</v>
       </c>
       <c r="K186">
         <v>590177</v>
@@ -17477,7 +17485,7 @@
         <v>62_3</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>62</v>
       </c>
@@ -17491,7 +17499,7 @@
         <v>47</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>90</v>
@@ -17504,7 +17512,7 @@
         <v>156</v>
       </c>
       <c r="J187" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K187">
         <v>589250</v>
@@ -17549,14 +17557,14 @@
         <v>0</v>
       </c>
       <c r="Z187" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AA187" s="3" t="str">
         <f t="shared" si="2"/>
         <v>62_4</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>62</v>
       </c>
@@ -17570,22 +17578,22 @@
         <v>112</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H188">
         <v>54</v>
       </c>
       <c r="I188" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J188" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K188">
         <v>589250</v>
@@ -17637,7 +17645,7 @@
         <v>62_5</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>62</v>
       </c>
@@ -17651,20 +17659,20 @@
         <v>33</v>
       </c>
       <c r="E189" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F189" s="4" t="s">
         <v>635</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>636</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189">
         <v>62</v>
       </c>
       <c r="I189" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J189" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K189">
         <v>589250</v>
@@ -17709,14 +17717,14 @@
         <v>0</v>
       </c>
       <c r="Z189" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AA189" s="3" t="str">
         <f t="shared" si="2"/>
         <v>62_6</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>62</v>
       </c>
@@ -17730,7 +17738,7 @@
         <v>112</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
@@ -17738,10 +17746,10 @@
         <v>54</v>
       </c>
       <c r="I190" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J190" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K190">
         <v>589250</v>
@@ -17786,14 +17794,14 @@
         <v>0</v>
       </c>
       <c r="Z190" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA190" s="3" t="str">
         <f t="shared" si="2"/>
         <v>62_7</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>62</v>
       </c>
@@ -17804,10 +17812,10 @@
         <v>53</v>
       </c>
       <c r="D191" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E191" s="4" t="s">
         <v>641</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>642</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>90</v>
@@ -17817,10 +17825,10 @@
         <v>44</v>
       </c>
       <c r="I191" t="s">
+        <v>642</v>
+      </c>
+      <c r="J191" t="s">
         <v>643</v>
-      </c>
-      <c r="J191" t="s">
-        <v>644</v>
       </c>
       <c r="K191">
         <v>589454</v>
@@ -17872,7 +17880,7 @@
         <v>62_8</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>62</v>
       </c>
@@ -17886,20 +17894,20 @@
         <v>309</v>
       </c>
       <c r="E192" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F192" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>646</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192">
         <v>51</v>
       </c>
       <c r="I192" t="s">
+        <v>646</v>
+      </c>
+      <c r="J192" t="s">
         <v>647</v>
-      </c>
-      <c r="J192" t="s">
-        <v>648</v>
       </c>
       <c r="K192">
         <v>517607</v>
@@ -17951,7 +17959,7 @@
         <v>62_9</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>62</v>
       </c>
@@ -17965,7 +17973,7 @@
         <v>88</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>90</v>
@@ -17975,10 +17983,10 @@
         <v>60</v>
       </c>
       <c r="I193" t="s">
+        <v>649</v>
+      </c>
+      <c r="J193" t="s">
         <v>650</v>
-      </c>
-      <c r="J193" t="s">
-        <v>651</v>
       </c>
       <c r="K193">
         <v>589667</v>
@@ -18030,7 +18038,7 @@
         <v>62_10</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>62</v>
       </c>
@@ -18041,10 +18049,10 @@
         <v>47</v>
       </c>
       <c r="D194" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E194" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
@@ -18052,10 +18060,10 @@
         <v>42</v>
       </c>
       <c r="I194" t="s">
+        <v>653</v>
+      </c>
+      <c r="J194" t="s">
         <v>654</v>
-      </c>
-      <c r="J194" t="s">
-        <v>655</v>
       </c>
       <c r="K194">
         <v>506770</v>
@@ -18107,7 +18115,7 @@
         <v>62_11</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>65</v>
       </c>
@@ -18118,10 +18126,10 @@
         <v>1114</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>28</v>
@@ -18131,10 +18139,10 @@
         <v>55</v>
       </c>
       <c r="I195" t="s">
+        <v>656</v>
+      </c>
+      <c r="J195" t="s">
         <v>657</v>
-      </c>
-      <c r="J195" t="s">
-        <v>658</v>
       </c>
       <c r="K195">
         <v>536385</v>
@@ -18182,11 +18190,11 @@
         <v>51</v>
       </c>
       <c r="AA195" s="3" t="str">
-        <f t="shared" ref="AA195:AA237" si="3">A195 &amp; "_" &amp; B195</f>
+        <f t="shared" ref="AA195:AA238" si="3">A195 &amp; "_" &amp; B195</f>
         <v>65_1</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>65</v>
       </c>
@@ -18200,7 +18208,7 @@
         <v>56</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>28</v>
@@ -18212,7 +18220,7 @@
         <v>269</v>
       </c>
       <c r="J196" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K196">
         <v>525588</v>
@@ -18264,7 +18272,7 @@
         <v>65_2</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>65</v>
       </c>
@@ -18278,19 +18286,19 @@
         <v>108</v>
       </c>
       <c r="E197" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="F197" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="H197">
         <v>61</v>
       </c>
       <c r="I197" t="s">
+        <v>662</v>
+      </c>
+      <c r="J197" t="s">
         <v>663</v>
-      </c>
-      <c r="J197" t="s">
-        <v>664</v>
       </c>
       <c r="K197">
         <v>523704</v>
@@ -18335,494 +18343,488 @@
         <v>0</v>
       </c>
       <c r="Z197" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AA197" s="3" t="str">
         <f t="shared" si="3"/>
         <v>65_3</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>65</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C198" s="4">
-        <v>768</v>
+        <v>80</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E198" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H198">
+        <v>66</v>
+      </c>
+      <c r="I198" t="s">
         <v>666</v>
       </c>
-      <c r="F198" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H198">
-        <v>45</v>
-      </c>
-      <c r="I198" t="s">
+      <c r="J198" t="s">
         <v>667</v>
       </c>
-      <c r="J198" t="s">
-        <v>664</v>
-      </c>
       <c r="K198">
-        <v>523704</v>
+        <v>569356</v>
       </c>
       <c r="L198">
         <v>99</v>
       </c>
       <c r="M198">
+        <v>80</v>
+      </c>
+      <c r="N198" t="s">
+        <v>668</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>0</v>
+      </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA198" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>65</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="C199" s="4">
         <v>768</v>
       </c>
-      <c r="N198" t="s">
-        <v>31</v>
-      </c>
-      <c r="O198">
-        <v>0</v>
-      </c>
-      <c r="P198">
-        <v>0</v>
-      </c>
-      <c r="Q198">
-        <v>0</v>
-      </c>
-      <c r="R198">
-        <v>0</v>
-      </c>
-      <c r="S198">
-        <v>0</v>
-      </c>
-      <c r="T198">
-        <v>0</v>
-      </c>
-      <c r="U198">
-        <v>0</v>
-      </c>
-      <c r="V198">
-        <v>0</v>
-      </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <v>0</v>
-      </c>
-      <c r="Z198" t="s">
+      <c r="D199" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H199">
+        <v>45</v>
+      </c>
+      <c r="I199" t="s">
+        <v>670</v>
+      </c>
+      <c r="J199" t="s">
+        <v>663</v>
+      </c>
+      <c r="K199">
+        <v>523704</v>
+      </c>
+      <c r="L199">
+        <v>99</v>
+      </c>
+      <c r="M199">
+        <v>768</v>
+      </c>
+      <c r="N199" t="s">
+        <v>31</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Z199" t="s">
         <v>55</v>
       </c>
-      <c r="AA198" s="3" t="str">
+      <c r="AA199" s="3" t="str">
         <f t="shared" si="3"/>
         <v>65_5</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A199">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>65</v>
       </c>
-      <c r="B199">
+      <c r="B200">
         <v>6</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C200" s="4">
         <v>47</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D200" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E199" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="F199" s="4" t="s">
+      <c r="E200" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="F200" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H199">
+      <c r="H200">
         <v>61</v>
       </c>
-      <c r="I199" t="s">
-        <v>669</v>
-      </c>
-      <c r="J199" t="s">
-        <v>670</v>
-      </c>
-      <c r="K199">
+      <c r="I200" t="s">
+        <v>672</v>
+      </c>
+      <c r="J200" t="s">
+        <v>673</v>
+      </c>
+      <c r="K200">
         <v>540978</v>
       </c>
-      <c r="L199">
+      <c r="L200">
         <v>47</v>
       </c>
-      <c r="M199">
+      <c r="M200">
         <v>47</v>
       </c>
-      <c r="N199" t="s">
-        <v>31</v>
-      </c>
-      <c r="O199">
-        <v>0</v>
-      </c>
-      <c r="P199">
-        <v>0</v>
-      </c>
-      <c r="Q199">
-        <v>0</v>
-      </c>
-      <c r="R199">
-        <v>0</v>
-      </c>
-      <c r="S199">
-        <v>0</v>
-      </c>
-      <c r="T199">
-        <v>0</v>
-      </c>
-      <c r="U199">
-        <v>0</v>
-      </c>
-      <c r="V199">
-        <v>0</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
-        <v>0</v>
-      </c>
-      <c r="Z199" t="s">
+      <c r="N200" t="s">
+        <v>31</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Z200" t="s">
         <v>32</v>
       </c>
-      <c r="AA199" s="3" t="str">
+      <c r="AA200" s="3" t="str">
         <f t="shared" si="3"/>
         <v>65_6</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A200">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>65</v>
       </c>
-      <c r="B200">
+      <c r="B201">
         <v>7</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C201" s="4">
         <v>7</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="F200" s="4" t="s">
+      <c r="D201" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F201" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G200" t="s">
-        <v>547</v>
-      </c>
-      <c r="H200">
+      <c r="G201" t="s">
+        <v>546</v>
+      </c>
+      <c r="H201">
         <v>59</v>
       </c>
-      <c r="I200" t="s">
-        <v>673</v>
-      </c>
-      <c r="J200" t="s">
-        <v>664</v>
-      </c>
-      <c r="K200">
+      <c r="I201" t="s">
+        <v>676</v>
+      </c>
+      <c r="J201" t="s">
+        <v>663</v>
+      </c>
+      <c r="K201">
         <v>523704</v>
       </c>
-      <c r="L200">
+      <c r="L201">
         <v>7</v>
       </c>
-      <c r="M200">
+      <c r="M201">
         <v>7</v>
       </c>
-      <c r="N200" t="s">
-        <v>31</v>
-      </c>
-      <c r="O200">
-        <v>0</v>
-      </c>
-      <c r="P200">
-        <v>0</v>
-      </c>
-      <c r="Q200">
-        <v>0</v>
-      </c>
-      <c r="R200">
-        <v>0</v>
-      </c>
-      <c r="S200">
-        <v>0</v>
-      </c>
-      <c r="T200">
-        <v>0</v>
-      </c>
-      <c r="U200">
-        <v>0</v>
-      </c>
-      <c r="V200">
-        <v>0</v>
-      </c>
-      <c r="W200">
-        <v>0</v>
-      </c>
-      <c r="X200">
-        <v>0</v>
-      </c>
-      <c r="Z200" t="s">
+      <c r="N201" t="s">
+        <v>31</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Z201" t="s">
         <v>63</v>
       </c>
-      <c r="AA200" s="3" t="str">
+      <c r="AA201" s="3" t="str">
         <f t="shared" si="3"/>
         <v>65_7</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A201">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>68</v>
       </c>
-      <c r="B201">
+      <c r="B202">
         <v>1</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C202" s="4">
         <v>1</v>
       </c>
-      <c r="D201" s="4" t="s">
+      <c r="D202" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E201" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="F201" s="4"/>
-      <c r="H201">
+      <c r="E202" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F202" s="4"/>
+      <c r="H202">
         <v>68</v>
       </c>
-      <c r="I201" t="s">
-        <v>348</v>
-      </c>
-      <c r="J201" t="s">
-        <v>675</v>
-      </c>
-      <c r="K201">
+      <c r="I202" t="s">
+        <v>347</v>
+      </c>
+      <c r="J202" t="s">
+        <v>678</v>
+      </c>
+      <c r="K202">
         <v>507270</v>
       </c>
-      <c r="L201">
+      <c r="L202">
         <v>1</v>
       </c>
-      <c r="M201">
+      <c r="M202">
         <v>1</v>
       </c>
-      <c r="N201" t="s">
-        <v>31</v>
-      </c>
-      <c r="O201">
-        <v>0</v>
-      </c>
-      <c r="P201">
-        <v>0</v>
-      </c>
-      <c r="Q201">
-        <v>0</v>
-      </c>
-      <c r="R201">
-        <v>0</v>
-      </c>
-      <c r="S201">
-        <v>0</v>
-      </c>
-      <c r="T201">
-        <v>0</v>
-      </c>
-      <c r="U201">
-        <v>0</v>
-      </c>
-      <c r="V201">
-        <v>0</v>
-      </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-      <c r="X201">
-        <v>0</v>
-      </c>
-      <c r="Z201" t="s">
+      <c r="N202" t="s">
+        <v>31</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Z202" t="s">
         <v>256</v>
       </c>
-      <c r="AA201" s="3" t="str">
+      <c r="AA202" s="3" t="str">
         <f t="shared" si="3"/>
         <v>68_1</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A202">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>68</v>
       </c>
-      <c r="B202">
+      <c r="B203">
         <v>2</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C203" s="4">
         <v>720</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="D203" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E202" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="F202" s="4"/>
-      <c r="H202">
+      <c r="E203" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="F203" s="4"/>
+      <c r="H203">
         <v>65</v>
       </c>
-      <c r="I202" t="s">
-        <v>677</v>
-      </c>
-      <c r="J202" t="s">
-        <v>678</v>
-      </c>
-      <c r="K202">
+      <c r="I203" t="s">
+        <v>680</v>
+      </c>
+      <c r="J203" t="s">
+        <v>681</v>
+      </c>
+      <c r="K203">
         <v>8</v>
       </c>
-      <c r="L202">
+      <c r="L203">
         <v>99</v>
       </c>
-      <c r="M202">
+      <c r="M203">
         <v>720</v>
       </c>
-      <c r="N202" t="s">
-        <v>31</v>
-      </c>
-      <c r="O202">
-        <v>0</v>
-      </c>
-      <c r="P202">
-        <v>0</v>
-      </c>
-      <c r="Q202">
-        <v>0</v>
-      </c>
-      <c r="R202">
-        <v>0</v>
-      </c>
-      <c r="S202">
-        <v>0</v>
-      </c>
-      <c r="T202">
-        <v>0</v>
-      </c>
-      <c r="U202">
-        <v>0</v>
-      </c>
-      <c r="V202">
-        <v>0</v>
-      </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <v>0</v>
-      </c>
-      <c r="Z202" t="s">
+      <c r="N203" t="s">
+        <v>31</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Z203" t="s">
         <v>134</v>
       </c>
-      <c r="AA202" s="3" t="str">
+      <c r="AA203" s="3" t="str">
         <f t="shared" si="3"/>
         <v>68_2</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>68</v>
-      </c>
-      <c r="B203">
-        <v>3</v>
-      </c>
-      <c r="C203" s="4">
-        <v>1114</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H203">
-        <v>60</v>
-      </c>
-      <c r="I203" t="s">
-        <v>681</v>
-      </c>
-      <c r="J203" t="s">
-        <v>678</v>
-      </c>
-      <c r="K203">
-        <v>8</v>
-      </c>
-      <c r="L203">
-        <v>1114</v>
-      </c>
-      <c r="M203">
-        <v>1114</v>
-      </c>
-      <c r="N203" t="s">
-        <v>31</v>
-      </c>
-      <c r="O203">
-        <v>0</v>
-      </c>
-      <c r="P203">
-        <v>0</v>
-      </c>
-      <c r="Q203">
-        <v>0</v>
-      </c>
-      <c r="R203">
-        <v>0</v>
-      </c>
-      <c r="S203">
-        <v>0</v>
-      </c>
-      <c r="T203">
-        <v>0</v>
-      </c>
-      <c r="U203">
-        <v>0</v>
-      </c>
-      <c r="V203">
-        <v>0</v>
-      </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-      <c r="X203">
-        <v>0</v>
-      </c>
-      <c r="Z203" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA203" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="AB203" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="AC203" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>68</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204" s="4">
-        <v>47</v>
+        <v>1114</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>682</v>
@@ -18831,7 +18833,7 @@
         <v>683</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H204">
         <v>60</v>
@@ -18840,16 +18842,16 @@
         <v>684</v>
       </c>
       <c r="J204" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="K204">
-        <v>512907</v>
+        <v>8</v>
       </c>
       <c r="L204">
-        <v>47</v>
+        <v>1114</v>
       </c>
       <c r="M204">
-        <v>47</v>
+        <v>1114</v>
       </c>
       <c r="N204" t="s">
         <v>31</v>
@@ -18885,39 +18887,39 @@
         <v>0</v>
       </c>
       <c r="Z204" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AA204" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AB204" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AC204" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>68</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205" s="4">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>326</v>
+        <v>685</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>686</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="H205">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I205" t="s">
         <v>687</v>
@@ -18926,1192 +18928,1197 @@
         <v>688</v>
       </c>
       <c r="K205">
+        <v>512907</v>
+      </c>
+      <c r="L205">
+        <v>47</v>
+      </c>
+      <c r="M205">
+        <v>47</v>
+      </c>
+      <c r="N205" t="s">
+        <v>31</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA205" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB205" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="AC205" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>68</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206" s="4">
+        <v>80</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H206">
+        <v>54</v>
+      </c>
+      <c r="I206" t="s">
+        <v>690</v>
+      </c>
+      <c r="J206" t="s">
+        <v>691</v>
+      </c>
+      <c r="K206">
         <v>509612</v>
       </c>
-      <c r="L205">
+      <c r="L206">
         <v>99</v>
       </c>
-      <c r="M205">
+      <c r="M206">
         <v>80</v>
       </c>
-      <c r="N205" t="s">
-        <v>31</v>
-      </c>
-      <c r="O205">
-        <v>0</v>
-      </c>
-      <c r="P205">
-        <v>0</v>
-      </c>
-      <c r="Q205">
-        <v>0</v>
-      </c>
-      <c r="R205">
-        <v>0</v>
-      </c>
-      <c r="S205">
-        <v>0</v>
-      </c>
-      <c r="T205">
-        <v>0</v>
-      </c>
-      <c r="U205">
-        <v>0</v>
-      </c>
-      <c r="V205">
-        <v>0</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-      <c r="Z205" t="s">
+      <c r="N206" t="s">
+        <v>31</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Z206" t="s">
         <v>67</v>
       </c>
-      <c r="AA205" s="3" t="str">
+      <c r="AA206" s="3" t="str">
         <f t="shared" si="3"/>
         <v>68_5</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A206">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>68</v>
       </c>
-      <c r="B206">
+      <c r="B207">
         <v>6</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C207" s="4">
         <v>1329</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="F206" s="4" t="s">
+      <c r="D207" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F207" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G206" s="4"/>
-      <c r="H206">
+      <c r="G207" s="4"/>
+      <c r="H207">
         <v>60</v>
       </c>
-      <c r="I206" t="s">
-        <v>691</v>
-      </c>
-      <c r="J206" t="s">
-        <v>692</v>
-      </c>
-      <c r="K206">
+      <c r="I207" t="s">
+        <v>694</v>
+      </c>
+      <c r="J207" t="s">
+        <v>695</v>
+      </c>
+      <c r="K207">
         <v>506214</v>
       </c>
-      <c r="L206">
+      <c r="L207">
         <v>721</v>
       </c>
-      <c r="M206">
+      <c r="M207">
         <v>721</v>
       </c>
-      <c r="N206" t="s">
-        <v>31</v>
-      </c>
-      <c r="O206">
-        <v>0</v>
-      </c>
-      <c r="P206">
-        <v>0</v>
-      </c>
-      <c r="Q206">
-        <v>0</v>
-      </c>
-      <c r="R206">
-        <v>0</v>
-      </c>
-      <c r="S206">
-        <v>0</v>
-      </c>
-      <c r="T206">
-        <v>0</v>
-      </c>
-      <c r="U206">
-        <v>0</v>
-      </c>
-      <c r="V206">
-        <v>0</v>
-      </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <v>0</v>
-      </c>
-      <c r="Z206" t="s">
-        <v>693</v>
-      </c>
-      <c r="AA206" s="3" t="str">
+      <c r="N207" t="s">
+        <v>31</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA207" s="3" t="str">
         <f t="shared" si="3"/>
         <v>68_6</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A207">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>68</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <v>7</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C208" s="4">
         <v>768</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="F207" s="4" t="s">
+      <c r="D208" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="F208" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G207" s="4"/>
-      <c r="H207">
+      <c r="G208" s="4"/>
+      <c r="H208">
         <v>45</v>
       </c>
-      <c r="I207" t="s">
-        <v>696</v>
-      </c>
-      <c r="J207" t="s">
-        <v>678</v>
-      </c>
-      <c r="K207">
+      <c r="I208" t="s">
+        <v>699</v>
+      </c>
+      <c r="J208" t="s">
+        <v>681</v>
+      </c>
+      <c r="K208">
         <v>8</v>
       </c>
-      <c r="L207">
+      <c r="L208">
         <v>768</v>
       </c>
-      <c r="M207">
+      <c r="M208">
         <v>768</v>
       </c>
-      <c r="N207" t="s">
-        <v>31</v>
-      </c>
-      <c r="O207">
-        <v>0</v>
-      </c>
-      <c r="P207">
-        <v>0</v>
-      </c>
-      <c r="Q207">
-        <v>0</v>
-      </c>
-      <c r="R207">
-        <v>0</v>
-      </c>
-      <c r="S207">
-        <v>0</v>
-      </c>
-      <c r="T207">
-        <v>0</v>
-      </c>
-      <c r="U207">
-        <v>0</v>
-      </c>
-      <c r="V207">
-        <v>0</v>
-      </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <v>0</v>
-      </c>
-      <c r="Z207" t="s">
+      <c r="N208" t="s">
+        <v>31</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Z208" t="s">
         <v>55</v>
       </c>
-      <c r="AA207" s="3" t="str">
+      <c r="AA208" s="3" t="str">
         <f t="shared" si="3"/>
         <v>68_7</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A208">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>71</v>
       </c>
-      <c r="B208">
+      <c r="B209">
         <v>1</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C209" s="4">
         <v>1114</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="F208" s="4" t="s">
+      <c r="D209" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F209" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G208" s="4"/>
-      <c r="H208">
+      <c r="G209" s="4"/>
+      <c r="H209">
         <v>60</v>
       </c>
-      <c r="I208" t="s">
-        <v>699</v>
-      </c>
-      <c r="J208" t="s">
-        <v>700</v>
-      </c>
-      <c r="K208">
+      <c r="I209" t="s">
+        <v>702</v>
+      </c>
+      <c r="J209" t="s">
+        <v>703</v>
+      </c>
+      <c r="K209">
         <v>4</v>
       </c>
-      <c r="L208">
+      <c r="L209">
         <v>99</v>
       </c>
-      <c r="M208">
+      <c r="M209">
         <v>1114</v>
       </c>
-      <c r="N208" t="s">
-        <v>31</v>
-      </c>
-      <c r="O208">
-        <v>0</v>
-      </c>
-      <c r="P208">
-        <v>0</v>
-      </c>
-      <c r="Q208">
-        <v>0</v>
-      </c>
-      <c r="R208">
-        <v>0</v>
-      </c>
-      <c r="S208">
-        <v>0</v>
-      </c>
-      <c r="T208">
-        <v>0</v>
-      </c>
-      <c r="U208">
-        <v>0</v>
-      </c>
-      <c r="V208">
-        <v>0</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Z208" t="s">
+      <c r="N209" t="s">
+        <v>31</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Z209" t="s">
         <v>51</v>
       </c>
-      <c r="AA208" s="3" t="str">
+      <c r="AA209" s="3" t="str">
         <f t="shared" si="3"/>
         <v>71_1</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A209">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>71</v>
       </c>
-      <c r="B209">
+      <c r="B210">
         <v>2</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C210" s="4">
         <v>47</v>
       </c>
-      <c r="D209" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="F209" s="4" t="s">
+      <c r="D210" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="F210" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G209" s="4"/>
-      <c r="H209">
+      <c r="G210" s="4"/>
+      <c r="H210">
         <v>43</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I210" t="s">
+        <v>706</v>
+      </c>
+      <c r="J210" t="s">
         <v>703</v>
       </c>
-      <c r="J209" t="s">
-        <v>700</v>
-      </c>
-      <c r="K209">
+      <c r="K210">
         <v>4</v>
       </c>
-      <c r="L209">
+      <c r="L210">
         <v>47</v>
       </c>
-      <c r="M209">
+      <c r="M210">
         <v>47</v>
       </c>
-      <c r="N209" t="s">
-        <v>31</v>
-      </c>
-      <c r="O209">
-        <v>0</v>
-      </c>
-      <c r="P209">
-        <v>0</v>
-      </c>
-      <c r="Q209">
-        <v>0</v>
-      </c>
-      <c r="R209">
-        <v>0</v>
-      </c>
-      <c r="S209">
-        <v>0</v>
-      </c>
-      <c r="T209">
-        <v>0</v>
-      </c>
-      <c r="U209">
-        <v>0</v>
-      </c>
-      <c r="V209">
-        <v>0</v>
-      </c>
-      <c r="W209">
-        <v>0</v>
-      </c>
-      <c r="X209">
-        <v>0</v>
-      </c>
-      <c r="Z209" t="s">
+      <c r="N210" t="s">
+        <v>31</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Z210" t="s">
         <v>32</v>
       </c>
-      <c r="AA209" s="3" t="str">
+      <c r="AA210" s="3" t="str">
         <f t="shared" si="3"/>
         <v>71_2</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A210">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>71</v>
       </c>
-      <c r="B210">
+      <c r="B211">
         <v>3</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C211" s="4">
         <v>80</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F210" s="4" t="s">
+      <c r="D211" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G210" s="4"/>
-      <c r="H210">
+      <c r="G211" s="4"/>
+      <c r="H211">
         <v>42</v>
       </c>
-      <c r="I210" t="s">
-        <v>706</v>
-      </c>
-      <c r="J210" t="s">
-        <v>700</v>
-      </c>
-      <c r="K210">
+      <c r="I211" t="s">
+        <v>709</v>
+      </c>
+      <c r="J211" t="s">
+        <v>703</v>
+      </c>
+      <c r="K211">
         <v>4</v>
       </c>
-      <c r="L210">
+      <c r="L211">
         <v>99</v>
       </c>
-      <c r="M210">
+      <c r="M211">
         <v>80</v>
       </c>
-      <c r="N210" t="s">
-        <v>31</v>
-      </c>
-      <c r="O210">
-        <v>0</v>
-      </c>
-      <c r="P210">
-        <v>0</v>
-      </c>
-      <c r="Q210">
-        <v>0</v>
-      </c>
-      <c r="R210">
-        <v>0</v>
-      </c>
-      <c r="S210">
-        <v>0</v>
-      </c>
-      <c r="T210">
-        <v>0</v>
-      </c>
-      <c r="U210">
-        <v>0</v>
-      </c>
-      <c r="V210">
-        <v>0</v>
-      </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
-      <c r="Z210" t="s">
+      <c r="N211" t="s">
+        <v>31</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Z211" t="s">
         <v>67</v>
       </c>
-      <c r="AA210" s="3" t="str">
+      <c r="AA211" s="3" t="str">
         <f t="shared" si="3"/>
         <v>71_3</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A211">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>71</v>
       </c>
-      <c r="B211">
+      <c r="B212">
         <v>4</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C212" s="4">
         <v>159</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="G211" s="4"/>
-      <c r="H211">
+      <c r="D212" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G212" s="4"/>
+      <c r="H212">
         <v>63</v>
       </c>
-      <c r="I211" t="s">
-        <v>709</v>
-      </c>
-      <c r="J211" t="s">
-        <v>700</v>
-      </c>
-      <c r="K211">
+      <c r="I212" t="s">
+        <v>712</v>
+      </c>
+      <c r="J212" t="s">
+        <v>703</v>
+      </c>
+      <c r="K212">
         <v>4</v>
       </c>
-      <c r="L211">
+      <c r="L212">
         <v>159</v>
       </c>
-      <c r="M211">
+      <c r="M212">
         <v>159</v>
       </c>
-      <c r="N211" t="s">
-        <v>31</v>
-      </c>
-      <c r="O211">
-        <v>0</v>
-      </c>
-      <c r="P211">
-        <v>0</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>0</v>
-      </c>
-      <c r="S211">
-        <v>0</v>
-      </c>
-      <c r="T211">
-        <v>0</v>
-      </c>
-      <c r="U211">
-        <v>0</v>
-      </c>
-      <c r="V211">
-        <v>0</v>
-      </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Z211" t="s">
+      <c r="N212" t="s">
+        <v>31</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Z212" t="s">
         <v>258</v>
       </c>
-      <c r="AA211" s="3" t="str">
+      <c r="AA212" s="3" t="str">
         <f t="shared" si="3"/>
         <v>71_4</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A212">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>71</v>
       </c>
-      <c r="B212">
+      <c r="B213">
         <v>5</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C213" s="4">
         <v>755</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="F212" s="4" t="s">
+      <c r="D213" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="F213" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G212" s="4"/>
-      <c r="H212">
+      <c r="G213" s="4"/>
+      <c r="H213">
         <v>64</v>
       </c>
-      <c r="I212" t="s">
-        <v>712</v>
-      </c>
-      <c r="J212" t="s">
-        <v>700</v>
-      </c>
-      <c r="K212">
+      <c r="I213" t="s">
+        <v>715</v>
+      </c>
+      <c r="J213" t="s">
+        <v>703</v>
+      </c>
+      <c r="K213">
         <v>4</v>
       </c>
-      <c r="L212">
+      <c r="L213">
         <v>755</v>
       </c>
-      <c r="M212">
+      <c r="M213">
         <v>755</v>
       </c>
-      <c r="N212" t="s">
-        <v>31</v>
-      </c>
-      <c r="O212">
-        <v>0</v>
-      </c>
-      <c r="P212">
-        <v>0</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>0</v>
-      </c>
-      <c r="S212">
-        <v>0</v>
-      </c>
-      <c r="T212">
-        <v>0</v>
-      </c>
-      <c r="U212">
-        <v>0</v>
-      </c>
-      <c r="V212">
-        <v>0</v>
-      </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-      <c r="X212">
-        <v>0</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>713</v>
-      </c>
-      <c r="AA212" s="3" t="str">
+      <c r="N213" t="s">
+        <v>31</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>716</v>
+      </c>
+      <c r="AA213" s="3" t="str">
         <f t="shared" si="3"/>
         <v>71_5</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A213">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>71</v>
       </c>
-      <c r="B213">
+      <c r="B214">
         <v>6</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C214" s="4">
         <v>80</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="D214" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E213" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="F213" s="4" t="s">
+      <c r="E214" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="F214" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G213" s="4"/>
-      <c r="H213">
+      <c r="G214" s="4"/>
+      <c r="H214">
         <v>66</v>
       </c>
-      <c r="I213" t="s">
-        <v>715</v>
-      </c>
-      <c r="J213" t="s">
+      <c r="I214" t="s">
+        <v>718</v>
+      </c>
+      <c r="J214" t="s">
         <v>75</v>
       </c>
-      <c r="K213">
+      <c r="K214">
         <v>1</v>
       </c>
-      <c r="L213">
+      <c r="L214">
         <v>99</v>
       </c>
-      <c r="M213">
+      <c r="M214">
         <v>80</v>
       </c>
-      <c r="N213" t="s">
-        <v>31</v>
-      </c>
-      <c r="O213">
-        <v>0</v>
-      </c>
-      <c r="P213">
-        <v>0</v>
-      </c>
-      <c r="Q213">
-        <v>0</v>
-      </c>
-      <c r="R213">
-        <v>0</v>
-      </c>
-      <c r="S213">
-        <v>0</v>
-      </c>
-      <c r="T213">
-        <v>0</v>
-      </c>
-      <c r="U213">
-        <v>0</v>
-      </c>
-      <c r="V213">
-        <v>0</v>
-      </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <v>0</v>
-      </c>
-      <c r="Z213" t="s">
+      <c r="N214" t="s">
+        <v>31</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Z214" t="s">
         <v>67</v>
       </c>
-      <c r="AA213" s="3" t="str">
+      <c r="AA214" s="3" t="str">
         <f t="shared" si="3"/>
         <v>71_6</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A214">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>71</v>
       </c>
-      <c r="B214">
+      <c r="B215">
         <v>7</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C215" s="4">
         <v>768</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="F214" s="4" t="s">
+      <c r="D215" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F215" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G214" s="4"/>
-      <c r="H214" s="4">
+      <c r="G215" s="4"/>
+      <c r="H215" s="4">
         <v>57</v>
       </c>
-      <c r="I214" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="J214" t="s">
-        <v>700</v>
-      </c>
-      <c r="K214">
+      <c r="I215" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="J215" t="s">
+        <v>703</v>
+      </c>
+      <c r="K215">
         <v>4</v>
       </c>
-      <c r="L214">
+      <c r="L215">
         <v>99</v>
       </c>
-      <c r="M214">
+      <c r="M215">
         <v>768</v>
       </c>
-      <c r="N214" t="s">
-        <v>31</v>
-      </c>
-      <c r="O214">
-        <v>0</v>
-      </c>
-      <c r="P214">
-        <v>0</v>
-      </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214">
-        <v>0</v>
-      </c>
-      <c r="S214">
-        <v>0</v>
-      </c>
-      <c r="T214">
-        <v>0</v>
-      </c>
-      <c r="U214">
-        <v>0</v>
-      </c>
-      <c r="V214">
-        <v>0</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Z214" t="s">
+      <c r="N215" t="s">
+        <v>31</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <v>0</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Z215" t="s">
         <v>55</v>
       </c>
-      <c r="AA214" s="3" t="str">
+      <c r="AA215" s="3" t="str">
         <f t="shared" si="3"/>
         <v>71_7</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A215">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>71</v>
       </c>
-      <c r="B215">
+      <c r="B216">
         <v>8</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C216" s="4">
         <v>88</v>
       </c>
-      <c r="D215" s="4" t="s">
+      <c r="D216" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E215" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="G215" s="4" t="s">
+      <c r="E216" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G216" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H215" s="4">
+      <c r="H216" s="4">
         <v>48</v>
       </c>
-      <c r="I215" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="J215" t="s">
+      <c r="I216" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="J216" t="s">
         <v>174</v>
       </c>
-      <c r="K215">
+      <c r="K216">
         <v>544256</v>
       </c>
-      <c r="L215">
+      <c r="L216">
         <v>99</v>
       </c>
-      <c r="M215">
+      <c r="M216">
         <v>88</v>
       </c>
-      <c r="N215" t="s">
-        <v>31</v>
-      </c>
-      <c r="O215">
-        <v>0</v>
-      </c>
-      <c r="P215">
-        <v>0</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
-        <v>0</v>
-      </c>
-      <c r="S215">
-        <v>0</v>
-      </c>
-      <c r="T215">
-        <v>0</v>
-      </c>
-      <c r="U215">
-        <v>0</v>
-      </c>
-      <c r="V215">
-        <v>0</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
-      </c>
-      <c r="Z215" t="s">
-        <v>722</v>
-      </c>
-      <c r="AA215" s="3" t="str">
+      <c r="N216" t="s">
+        <v>31</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA216" s="3" t="str">
         <f t="shared" si="3"/>
         <v>71_8</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A216">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>71</v>
       </c>
-      <c r="B216">
+      <c r="B217">
         <v>9</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C217" s="4">
         <v>720</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D217" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E216" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="F216" s="4" t="s">
+      <c r="E217" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="F217" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G216" s="4" t="s">
+      <c r="G217" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H216" s="4">
+      <c r="H217" s="4">
         <v>49</v>
       </c>
-      <c r="I216" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="J216" t="s">
-        <v>700</v>
-      </c>
-      <c r="K216">
+      <c r="I217" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="J217" t="s">
+        <v>703</v>
+      </c>
+      <c r="K217">
         <v>4</v>
       </c>
-      <c r="L216">
+      <c r="L217">
         <v>99</v>
       </c>
-      <c r="M216">
+      <c r="M217">
         <v>720</v>
       </c>
-      <c r="N216" t="s">
-        <v>31</v>
-      </c>
-      <c r="O216">
-        <v>0</v>
-      </c>
-      <c r="P216">
-        <v>0</v>
-      </c>
-      <c r="Q216">
-        <v>0</v>
-      </c>
-      <c r="R216">
-        <v>0</v>
-      </c>
-      <c r="S216">
-        <v>0</v>
-      </c>
-      <c r="T216">
-        <v>0</v>
-      </c>
-      <c r="U216">
-        <v>0</v>
-      </c>
-      <c r="V216">
-        <v>0</v>
-      </c>
-      <c r="W216">
-        <v>0</v>
-      </c>
-      <c r="X216">
-        <v>0</v>
-      </c>
-      <c r="Z216" t="s">
+      <c r="N217" t="s">
+        <v>31</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Z217" t="s">
         <v>134</v>
       </c>
-      <c r="AA216" s="3" t="str">
+      <c r="AA217" s="3" t="str">
         <f t="shared" si="3"/>
         <v>71_9</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A217">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>74</v>
       </c>
-      <c r="B217">
+      <c r="B218">
         <v>1</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C218" s="4">
         <v>47</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D218" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E217" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G217" s="4"/>
-      <c r="H217" s="4">
+      <c r="E218" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4">
         <v>68</v>
       </c>
-      <c r="I217" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="J217" t="s">
-        <v>727</v>
-      </c>
-      <c r="K217">
+      <c r="I218" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="J218" t="s">
+        <v>730</v>
+      </c>
+      <c r="K218">
         <v>555088</v>
       </c>
-      <c r="L217">
+      <c r="L218">
         <v>99</v>
       </c>
-      <c r="M217">
+      <c r="M218">
         <v>47</v>
       </c>
-      <c r="N217" t="s">
-        <v>31</v>
-      </c>
-      <c r="O217">
-        <v>0</v>
-      </c>
-      <c r="P217">
-        <v>0</v>
-      </c>
-      <c r="Q217">
-        <v>0</v>
-      </c>
-      <c r="R217">
-        <v>0</v>
-      </c>
-      <c r="S217">
-        <v>0</v>
-      </c>
-      <c r="T217">
-        <v>0</v>
-      </c>
-      <c r="U217">
-        <v>0</v>
-      </c>
-      <c r="V217">
-        <v>0</v>
-      </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-      <c r="X217">
-        <v>0</v>
-      </c>
-      <c r="Z217" t="s">
+      <c r="N218" t="s">
+        <v>31</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Z218" t="s">
         <v>32</v>
       </c>
-      <c r="AA217" s="3" t="str">
+      <c r="AA218" s="3" t="str">
         <f t="shared" si="3"/>
         <v>74_1</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A218">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>74</v>
       </c>
-      <c r="B218">
+      <c r="B219">
         <v>2</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C219" s="4">
         <v>7</v>
       </c>
-      <c r="D218" s="4" t="s">
+      <c r="D219" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E218" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="F218" s="4" t="s">
+      <c r="E219" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F219" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G218" s="4"/>
-      <c r="H218" s="4">
+      <c r="G219" s="4"/>
+      <c r="H219" s="4">
         <v>54</v>
       </c>
-      <c r="I218" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="J218" t="s">
-        <v>728</v>
-      </c>
-      <c r="K218">
+      <c r="I219" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J219" t="s">
+        <v>731</v>
+      </c>
+      <c r="K219">
         <v>599051</v>
       </c>
-      <c r="L218">
+      <c r="L219">
         <v>7</v>
       </c>
-      <c r="M218">
+      <c r="M219">
         <v>7</v>
       </c>
-      <c r="N218" t="s">
-        <v>31</v>
-      </c>
-      <c r="O218">
-        <v>0</v>
-      </c>
-      <c r="P218">
-        <v>0</v>
-      </c>
-      <c r="Q218">
-        <v>0</v>
-      </c>
-      <c r="R218">
-        <v>0</v>
-      </c>
-      <c r="S218">
-        <v>0</v>
-      </c>
-      <c r="T218">
-        <v>0</v>
-      </c>
-      <c r="U218">
-        <v>0</v>
-      </c>
-      <c r="V218">
-        <v>0</v>
-      </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Z218" t="s">
+      <c r="N219" t="s">
+        <v>31</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Z219" t="s">
         <v>63</v>
       </c>
-      <c r="AA218" s="3" t="str">
+      <c r="AA219" s="3" t="str">
         <f t="shared" si="3"/>
         <v>74_2</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A219">
-        <v>74</v>
-      </c>
-      <c r="B219">
-        <v>3</v>
-      </c>
-      <c r="C219" s="4">
-        <v>1217</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="G219" s="4"/>
-      <c r="H219" s="4">
-        <v>57</v>
-      </c>
-      <c r="I219" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="J219" t="s">
-        <v>727</v>
-      </c>
-      <c r="K219">
-        <v>555088</v>
-      </c>
-      <c r="L219">
-        <v>99</v>
-      </c>
-      <c r="M219">
-        <v>1217</v>
-      </c>
-      <c r="N219" t="s">
-        <v>31</v>
-      </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-      <c r="P219">
-        <v>0</v>
-      </c>
-      <c r="Q219">
-        <v>0</v>
-      </c>
-      <c r="R219">
-        <v>0</v>
-      </c>
-      <c r="S219">
-        <v>0</v>
-      </c>
-      <c r="T219">
-        <v>0</v>
-      </c>
-      <c r="U219">
-        <v>0</v>
-      </c>
-      <c r="V219">
-        <v>0</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Z219" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA219" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>74</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C220" s="4">
-        <v>80</v>
+        <v>1217</v>
       </c>
       <c r="D220" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E220" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="E220" s="4" t="s">
+      <c r="F220" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I220" s="4" t="s">
         <v>734</v>
       </c>
       <c r="J220" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="K220">
         <v>555088</v>
@@ -20120,407 +20127,403 @@
         <v>99</v>
       </c>
       <c r="M220">
+        <v>1217</v>
+      </c>
+      <c r="N220" t="s">
+        <v>31</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA220" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>74</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221" s="4">
         <v>80</v>
       </c>
-      <c r="N220" t="s">
-        <v>31</v>
-      </c>
-      <c r="O220">
-        <v>0</v>
-      </c>
-      <c r="P220">
-        <v>0</v>
-      </c>
-      <c r="Q220">
-        <v>0</v>
-      </c>
-      <c r="R220">
-        <v>0</v>
-      </c>
-      <c r="S220">
-        <v>0</v>
-      </c>
-      <c r="T220">
-        <v>0</v>
-      </c>
-      <c r="U220">
-        <v>0</v>
-      </c>
-      <c r="V220">
-        <v>0</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Z220" t="s">
+      <c r="D221" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4">
+        <v>56</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="J221" t="s">
+        <v>730</v>
+      </c>
+      <c r="K221">
+        <v>555088</v>
+      </c>
+      <c r="L221">
+        <v>99</v>
+      </c>
+      <c r="M221">
+        <v>80</v>
+      </c>
+      <c r="N221" t="s">
+        <v>31</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Z221" t="s">
         <v>67</v>
       </c>
-      <c r="AA220" s="3" t="str">
+      <c r="AA221" s="3" t="str">
         <f t="shared" si="3"/>
         <v>74_4</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A221">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>74</v>
       </c>
-      <c r="B221">
+      <c r="B222">
         <v>5</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C222" s="4">
         <v>80</v>
       </c>
-      <c r="D221" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="F221" s="4" t="s">
+      <c r="D222" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F222" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G221" s="4"/>
-      <c r="H221" s="4">
+      <c r="G222" s="4"/>
+      <c r="H222" s="4">
         <v>44</v>
       </c>
-      <c r="I221" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="J221" t="s">
-        <v>727</v>
-      </c>
-      <c r="K221">
+      <c r="I222" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="J222" t="s">
+        <v>730</v>
+      </c>
+      <c r="K222">
         <v>555088</v>
       </c>
-      <c r="L221">
+      <c r="L222">
         <v>99</v>
       </c>
-      <c r="M221">
+      <c r="M222">
         <v>80</v>
       </c>
-      <c r="N221" t="s">
-        <v>31</v>
-      </c>
-      <c r="O221">
-        <v>0</v>
-      </c>
-      <c r="P221">
-        <v>0</v>
-      </c>
-      <c r="Q221">
-        <v>0</v>
-      </c>
-      <c r="R221">
-        <v>0</v>
-      </c>
-      <c r="S221">
-        <v>0</v>
-      </c>
-      <c r="T221">
-        <v>0</v>
-      </c>
-      <c r="U221">
-        <v>0</v>
-      </c>
-      <c r="V221">
-        <v>0</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Z221" t="s">
-        <v>738</v>
-      </c>
-      <c r="AA221" s="3" t="str">
+      <c r="N222" t="s">
+        <v>31</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA222" s="3" t="str">
         <f t="shared" si="3"/>
         <v>74_5</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A222">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>74</v>
       </c>
-      <c r="B222">
+      <c r="B223">
         <v>6</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C223" s="4">
         <v>768</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="D223" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E222" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="F222" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="G222" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="H222" s="4">
+      <c r="E223" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="H223" s="4">
         <v>57</v>
       </c>
-      <c r="I222" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="J222" t="s">
-        <v>743</v>
-      </c>
-      <c r="K222">
+      <c r="I223" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="J223" t="s">
+        <v>746</v>
+      </c>
+      <c r="K223">
         <v>598798</v>
       </c>
-      <c r="L222">
+      <c r="L223">
         <v>99</v>
       </c>
-      <c r="M222">
+      <c r="M223">
         <v>768</v>
       </c>
-      <c r="N222" t="s">
-        <v>31</v>
-      </c>
-      <c r="O222">
-        <v>0</v>
-      </c>
-      <c r="P222">
-        <v>0</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>0</v>
-      </c>
-      <c r="S222">
-        <v>0</v>
-      </c>
-      <c r="T222">
-        <v>0</v>
-      </c>
-      <c r="U222">
-        <v>0</v>
-      </c>
-      <c r="V222">
-        <v>0</v>
-      </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <v>0</v>
-      </c>
-      <c r="Z222" t="s">
+      <c r="N223" t="s">
+        <v>31</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Z223" t="s">
         <v>55</v>
       </c>
-      <c r="AA222" s="3" t="str">
+      <c r="AA223" s="3" t="str">
         <f t="shared" si="3"/>
         <v>74_6</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A223">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>74</v>
       </c>
-      <c r="B223">
+      <c r="B224">
         <v>7</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C224" s="4">
         <v>721</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D224" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E223" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="F223" s="4" t="s">
+      <c r="E224" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F224" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G223" s="4"/>
-      <c r="H223" s="4">
+      <c r="G224" s="4"/>
+      <c r="H224" s="4">
         <v>66</v>
       </c>
-      <c r="I223" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="J223" t="s">
-        <v>746</v>
-      </c>
-      <c r="K223">
+      <c r="I224" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="J224" t="s">
+        <v>749</v>
+      </c>
+      <c r="K224">
         <v>599107</v>
       </c>
-      <c r="L223">
+      <c r="L224">
         <v>721</v>
       </c>
-      <c r="M223">
+      <c r="M224">
         <v>721</v>
       </c>
-      <c r="N223" t="s">
-        <v>31</v>
-      </c>
-      <c r="O223">
-        <v>0</v>
-      </c>
-      <c r="P223">
-        <v>0</v>
-      </c>
-      <c r="Q223">
-        <v>0</v>
-      </c>
-      <c r="R223">
-        <v>0</v>
-      </c>
-      <c r="S223">
-        <v>0</v>
-      </c>
-      <c r="T223">
-        <v>0</v>
-      </c>
-      <c r="U223">
-        <v>0</v>
-      </c>
-      <c r="V223">
-        <v>0</v>
-      </c>
-      <c r="W223">
-        <v>0</v>
-      </c>
-      <c r="X223">
-        <v>0</v>
-      </c>
-      <c r="Z223" t="s">
+      <c r="N224" t="s">
+        <v>31</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Z224" t="s">
         <v>170</v>
       </c>
-      <c r="AA223" s="3" t="str">
+      <c r="AA224" s="3" t="str">
         <f t="shared" si="3"/>
         <v>74_7</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A224">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A225">
         <v>74</v>
       </c>
-      <c r="B224">
+      <c r="B225">
         <v>8</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C225" s="4">
         <v>1114</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="F224" s="4" t="s">
+      <c r="D225" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G224" s="4"/>
-      <c r="H224" s="4">
-        <v>52</v>
-      </c>
-      <c r="I224" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J224" t="s">
-        <v>749</v>
-      </c>
-      <c r="K224">
-        <v>598917</v>
-      </c>
-      <c r="L224">
-        <v>1114</v>
-      </c>
-      <c r="M224">
-        <v>1114</v>
-      </c>
-      <c r="N224" t="s">
-        <v>31</v>
-      </c>
-      <c r="O224">
-        <v>0</v>
-      </c>
-      <c r="P224">
-        <v>0</v>
-      </c>
-      <c r="Q224">
-        <v>0</v>
-      </c>
-      <c r="R224">
-        <v>0</v>
-      </c>
-      <c r="S224">
-        <v>0</v>
-      </c>
-      <c r="T224">
-        <v>0</v>
-      </c>
-      <c r="U224">
-        <v>0</v>
-      </c>
-      <c r="V224">
-        <v>0</v>
-      </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-      <c r="X224">
-        <v>0</v>
-      </c>
-      <c r="Z224" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA224" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="AB224" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="AC224" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A225">
-        <v>77</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225" s="4">
-        <v>1</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>751</v>
+        <v>132</v>
       </c>
       <c r="J225" t="s">
         <v>752</v>
       </c>
       <c r="K225">
-        <v>541630</v>
+        <v>598917</v>
       </c>
       <c r="L225">
-        <v>1</v>
+        <v>1114</v>
       </c>
       <c r="M225">
-        <v>1</v>
+        <v>1114</v>
       </c>
       <c r="N225" t="s">
         <v>31</v>
@@ -20556,25 +20559,30 @@
         <v>0</v>
       </c>
       <c r="Z225" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA225" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>77_1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="AA225" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="AB225" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="AC225" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>77</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>753</v>
@@ -20582,7 +20590,7 @@
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>754</v>
@@ -20591,13 +20599,13 @@
         <v>755</v>
       </c>
       <c r="K226">
-        <v>545163</v>
+        <v>541630</v>
       </c>
       <c r="L226">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M226">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="N226" t="s">
         <v>31</v>
@@ -20633,48 +20641,48 @@
         <v>0</v>
       </c>
       <c r="Z226" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="AA226" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+        <v>77_1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>77</v>
       </c>
       <c r="B227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" s="4">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D227" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E227" s="4" t="s">
         <v>756</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>757</v>
       </c>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I227" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="J227" t="s">
         <v>758</v>
       </c>
-      <c r="J227" t="s">
-        <v>759</v>
-      </c>
       <c r="K227">
-        <v>541711</v>
+        <v>545163</v>
       </c>
       <c r="L227">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="M227">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="N227" t="s">
         <v>31</v>
@@ -20710,50 +20718,48 @@
         <v>0</v>
       </c>
       <c r="Z227" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="AA227" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+        <v>77_2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>77</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C228" s="4">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>47</v>
+        <v>759</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="F228" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="F228" s="4"/>
       <c r="G228" s="4"/>
-      <c r="H228">
-        <v>51</v>
-      </c>
-      <c r="I228" t="s">
+      <c r="H228" s="4">
+        <v>55</v>
+      </c>
+      <c r="I228" s="4" t="s">
         <v>761</v>
       </c>
       <c r="J228" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="K228">
-        <v>541630</v>
+        <v>541711</v>
       </c>
       <c r="L228">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="M228">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="N228" t="s">
         <v>31</v>
@@ -20789,48 +20795,50 @@
         <v>0</v>
       </c>
       <c r="Z228" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="AA228" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+        <v>77_3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>77</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C229" s="4">
+        <v>7</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>762</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="F229" s="4"/>
+      <c r="F229" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G229" s="4"/>
       <c r="H229">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I229" t="s">
         <v>764</v>
       </c>
       <c r="J229" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="K229">
-        <v>541648</v>
+        <v>541630</v>
       </c>
       <c r="L229">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="M229">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="N229" t="s">
         <v>31</v>
@@ -20866,50 +20874,48 @@
         <v>0</v>
       </c>
       <c r="Z229" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="AA229" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+        <v>77_4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>77</v>
       </c>
       <c r="B230">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" s="4">
-        <v>1114</v>
+        <v>47</v>
       </c>
       <c r="D230" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="E230" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="E230" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I230" t="s">
+        <v>767</v>
+      </c>
+      <c r="J230" t="s">
         <v>768</v>
       </c>
-      <c r="J230" t="s">
-        <v>752</v>
-      </c>
       <c r="K230">
-        <v>541630</v>
+        <v>541648</v>
       </c>
       <c r="L230">
-        <v>1114</v>
+        <v>47</v>
       </c>
       <c r="M230">
-        <v>1114</v>
+        <v>47</v>
       </c>
       <c r="N230" t="s">
         <v>31</v>
@@ -20945,28 +20951,28 @@
         <v>0</v>
       </c>
       <c r="Z230" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AA230" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>77_6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+        <v>77_5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C231" s="4">
         <v>1114</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>28</v>
@@ -20976,13 +20982,13 @@
         <v>54</v>
       </c>
       <c r="I231" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J231" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="K231">
-        <v>553972</v>
+        <v>541630</v>
       </c>
       <c r="L231">
         <v>1114</v>
@@ -21028,46 +21034,46 @@
       </c>
       <c r="AA231" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80_1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+        <v>77_6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>80</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" s="4">
-        <v>1</v>
+        <v>1114</v>
       </c>
       <c r="D232" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E232" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="E232" s="4" t="s">
-        <v>773</v>
-      </c>
       <c r="F232" s="4" t="s">
-        <v>774</v>
+        <v>28</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I232" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J232" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K232">
-        <v>592731</v>
+        <v>553972</v>
       </c>
       <c r="L232">
-        <v>1</v>
+        <v>1114</v>
       </c>
       <c r="M232">
-        <v>1</v>
+        <v>1114</v>
       </c>
       <c r="N232" t="s">
         <v>31</v>
@@ -21103,48 +21109,50 @@
         <v>0</v>
       </c>
       <c r="Z232" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="AA232" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80_2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+        <v>80_1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>80</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="4">
-        <v>716</v>
+        <v>1</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>303</v>
+        <v>775</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F233" s="4"/>
+        <v>776</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>777</v>
+      </c>
       <c r="G233" s="4"/>
       <c r="H233">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I233" t="s">
-        <v>378</v>
+        <v>778</v>
       </c>
       <c r="J233" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K233">
-        <v>592498</v>
+        <v>592731</v>
       </c>
       <c r="L233">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M233">
-        <v>716</v>
+        <v>1</v>
       </c>
       <c r="N233" t="s">
         <v>31</v>
@@ -21180,50 +21188,48 @@
         <v>0</v>
       </c>
       <c r="Z233" t="s">
-        <v>448</v>
+        <v>256</v>
       </c>
       <c r="AA233" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80_3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
+        <v>80_2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>80</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234" s="4">
-        <v>1176</v>
+        <v>716</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>778</v>
+        <v>303</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F234" s="4"/>
       <c r="G234" s="4"/>
       <c r="H234">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I234" t="s">
+        <v>377</v>
+      </c>
+      <c r="J234" t="s">
         <v>780</v>
       </c>
-      <c r="J234" t="s">
-        <v>648</v>
-      </c>
       <c r="K234">
-        <v>556980</v>
+        <v>592498</v>
       </c>
       <c r="L234">
-        <v>1176</v>
+        <v>99</v>
       </c>
       <c r="M234">
-        <v>1176</v>
+        <v>716</v>
       </c>
       <c r="N234" t="s">
         <v>31</v>
@@ -21259,50 +21265,50 @@
         <v>0</v>
       </c>
       <c r="Z234" t="s">
-        <v>235</v>
+        <v>447</v>
       </c>
       <c r="AA234" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80_4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
+        <v>80_3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>80</v>
       </c>
       <c r="B235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235" s="4">
-        <v>47</v>
+        <v>1176</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>219</v>
+        <v>781</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I235" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="J235" t="s">
-        <v>783</v>
+        <v>647</v>
       </c>
       <c r="K235">
-        <v>585459</v>
+        <v>556980</v>
       </c>
       <c r="L235">
-        <v>47</v>
+        <v>1176</v>
       </c>
       <c r="M235">
-        <v>47</v>
+        <v>1176</v>
       </c>
       <c r="N235" t="s">
         <v>31</v>
@@ -21338,168 +21344,247 @@
         <v>0</v>
       </c>
       <c r="Z235" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA235" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="AA235" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>80_4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>80</v>
       </c>
       <c r="B236">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" s="4">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D236" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E236" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="E236" s="4" t="s">
-        <v>785</v>
-      </c>
       <c r="F236" s="4" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236">
+        <v>69</v>
+      </c>
+      <c r="I236" t="s">
+        <v>785</v>
+      </c>
+      <c r="J236" t="s">
+        <v>786</v>
+      </c>
+      <c r="K236">
+        <v>585459</v>
+      </c>
+      <c r="L236">
+        <v>47</v>
+      </c>
+      <c r="M236">
+        <v>47</v>
+      </c>
+      <c r="N236" t="s">
+        <v>31</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>0</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA236" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>80</v>
+      </c>
+      <c r="B237">
+        <v>6</v>
+      </c>
+      <c r="C237" s="4">
+        <v>7</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G237" s="4"/>
+      <c r="H237">
         <v>60</v>
       </c>
-      <c r="I236" t="s">
-        <v>786</v>
-      </c>
-      <c r="J236" t="s">
-        <v>787</v>
-      </c>
-      <c r="K236">
+      <c r="I237" t="s">
+        <v>789</v>
+      </c>
+      <c r="J237" t="s">
+        <v>790</v>
+      </c>
+      <c r="K237">
         <v>585114</v>
       </c>
-      <c r="L236">
+      <c r="L237">
         <v>7</v>
       </c>
-      <c r="M236">
+      <c r="M237">
         <v>7</v>
       </c>
-      <c r="N236" t="s">
-        <v>31</v>
-      </c>
-      <c r="O236">
-        <v>0</v>
-      </c>
-      <c r="P236">
-        <v>0</v>
-      </c>
-      <c r="Q236">
-        <v>0</v>
-      </c>
-      <c r="R236">
-        <v>0</v>
-      </c>
-      <c r="S236">
-        <v>0</v>
-      </c>
-      <c r="T236">
-        <v>0</v>
-      </c>
-      <c r="U236">
-        <v>0</v>
-      </c>
-      <c r="V236">
-        <v>0</v>
-      </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <v>0</v>
-      </c>
-      <c r="Z236" t="s">
+      <c r="N237" t="s">
+        <v>31</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>0</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Z237" t="s">
         <v>63</v>
       </c>
-      <c r="AA236" s="3" t="str">
+      <c r="AA237" s="3" t="str">
         <f t="shared" si="3"/>
         <v>80_6</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A237">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>80</v>
       </c>
-      <c r="B237">
+      <c r="B238">
         <v>7</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C238" s="4">
         <v>724</v>
       </c>
-      <c r="D237" s="4" t="s">
+      <c r="D238" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E237" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="G237" s="4" t="s">
+      <c r="E238" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="G238" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H237">
+      <c r="H238">
         <v>64</v>
       </c>
-      <c r="I237" t="s">
-        <v>790</v>
-      </c>
-      <c r="J237" t="s">
-        <v>791</v>
-      </c>
-      <c r="K237">
+      <c r="I238" t="s">
+        <v>793</v>
+      </c>
+      <c r="J238" t="s">
+        <v>794</v>
+      </c>
+      <c r="K238">
         <v>592200</v>
       </c>
-      <c r="L237">
+      <c r="L238">
         <v>99</v>
       </c>
-      <c r="M237">
+      <c r="M238">
         <v>724</v>
       </c>
-      <c r="N237" t="s">
-        <v>31</v>
-      </c>
-      <c r="O237">
-        <v>0</v>
-      </c>
-      <c r="P237">
-        <v>0</v>
-      </c>
-      <c r="Q237">
-        <v>0</v>
-      </c>
-      <c r="R237">
-        <v>0</v>
-      </c>
-      <c r="S237">
-        <v>0</v>
-      </c>
-      <c r="T237">
-        <v>0</v>
-      </c>
-      <c r="U237">
-        <v>0</v>
-      </c>
-      <c r="V237">
-        <v>0</v>
-      </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-      <c r="X237">
-        <v>0</v>
-      </c>
-      <c r="Z237" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA237" s="3" t="str">
+      <c r="N238" t="s">
+        <v>31</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>0</v>
+      </c>
+      <c r="V238">
+        <v>0</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA238" s="3" t="str">
         <f t="shared" si="3"/>
         <v>80_7</v>
       </c>

--- a/tools/vizitky.xlsx
+++ b/tools/vizitky.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akottov1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="806">
   <si>
     <t>OBVOD</t>
   </si>
@@ -2434,6 +2434,9 @@
   </si>
   <si>
     <t>74_3</t>
+  </si>
+  <si>
+    <t>80_5</t>
   </si>
 </sst>
 </file>
@@ -2883,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="F202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA236" sqref="AA236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21426,7 +21429,7 @@
         <v>32</v>
       </c>
       <c r="AA236" s="3" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="237" spans="1:29" x14ac:dyDescent="0.25">
